--- a/scripts/YCbCrcalculator.xlsx
+++ b/scripts/YCbCrcalculator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Udi\work\AlexVideo\Drone_cam\Fix1809\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Udi\work\AlexVideo\Drone_cam\D1909\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81008758-207C-4099-84AD-53183A730D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52367C14-40D5-40B9-BEEA-383F4BA43841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1185" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{0E92F24A-9A72-411F-A4AA-3DEDFFA6C1B2}"/>
+    <workbookView xWindow="1260" yWindow="1305" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{0E92F24A-9A72-411F-A4AA-3DEDFFA6C1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -1385,10 +1385,13 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" t="s">
@@ -1714,37 +1717,37 @@
     </row>
     <row r="10" spans="1:17">
       <c r="B10">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>255</v>
       </c>
       <c r="G10">
         <f>INT(B16)</f>
-        <v>255</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <f>INT(B21)</f>
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="I10">
         <f>INT(B22)</f>
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="M10">
         <f>INT(B20)</f>
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="N10">
         <f>INT(B21)</f>
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="O10">
         <f>INT(B22)</f>
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1753,31 +1756,31 @@
       </c>
       <c r="B12">
         <f>$B$10*B6+$C$10*C6+$D$10*D6</f>
-        <v>65280</v>
+        <v>7441.92</v>
       </c>
       <c r="G12">
         <f>G10</f>
-        <v>255</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <f>H10-128</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="I12">
         <f>I10-128</f>
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="M12">
         <f>M10-16</f>
-        <v>255</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <f t="shared" ref="N12:O12" si="6">N10-128</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="O12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1786,7 +1789,19 @@
       </c>
       <c r="B13">
         <f t="shared" ref="B13:B14" si="7">$B$10*B7+$C$10*C7+$D$10*D7</f>
-        <v>0</v>
+        <v>32640</v>
+      </c>
+      <c r="G13" t="str">
+        <f>DEC2HEX(IF(G12&lt;0,128+G12,G12),2)</f>
+        <v>1D</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ref="H13:I13" si="8">DEC2HEX(IF(H12&lt;0,128+H12,H12),2)</f>
+        <v>7F</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="8"/>
+        <v>6B</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1795,7 +1810,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-5287.68</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1804,7 +1819,7 @@
       </c>
       <c r="G15">
         <f>$G$12*G6</f>
-        <v>65280</v>
+        <v>7424</v>
       </c>
       <c r="H15">
         <f>$H$12*H6</f>
@@ -1812,11 +1827,11 @@
       </c>
       <c r="I15">
         <f>$I$12*I6</f>
-        <v>0</v>
+        <v>-7539</v>
       </c>
       <c r="J15">
         <f>SUM(F15:I15)</f>
-        <v>65280</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1825,26 +1840,26 @@
       </c>
       <c r="B16">
         <f>B12/256</f>
-        <v>255</v>
+        <v>29.07</v>
       </c>
       <c r="F16" t="s">
         <v>4</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G17" si="8">$G$12*G7</f>
-        <v>65280</v>
+        <f t="shared" ref="G16:G17" si="9">$G$12*G7</f>
+        <v>7424</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H17" si="9">$H$12*H7</f>
-        <v>0</v>
+        <f t="shared" ref="H16:H17" si="10">$H$12*H7</f>
+        <v>-11176</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16:I17" si="10">$I$12*I7</f>
-        <v>0</v>
+        <f t="shared" ref="I16:I17" si="11">$I$12*I7</f>
+        <v>3843</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16:J17" si="11">SUM(F16:I16)</f>
-        <v>65280</v>
+        <f t="shared" ref="J16:J17" si="12">SUM(F16:I16)</f>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1852,27 +1867,27 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:B18" si="12">B13/256</f>
-        <v>0</v>
+        <f t="shared" ref="B17:B18" si="13">B13/256</f>
+        <v>127.5</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
       </c>
       <c r="G17">
-        <f t="shared" si="8"/>
-        <v>65280</v>
+        <f t="shared" si="9"/>
+        <v>7424</v>
       </c>
       <c r="H17">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>57531</v>
       </c>
       <c r="I17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J17">
-        <f t="shared" si="11"/>
-        <v>65280</v>
+        <f t="shared" si="12"/>
+        <v>64955</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1880,8 +1895,8 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>-20.655000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1890,11 +1905,11 @@
       </c>
       <c r="J19">
         <f>J15/256</f>
-        <v>255</v>
+        <v>-0.44921875</v>
       </c>
       <c r="K19" t="str">
         <f>DEC2HEX(J19)</f>
-        <v>FF</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1903,26 +1918,26 @@
       </c>
       <c r="B20">
         <f>B16+16</f>
-        <v>271</v>
+        <v>45.07</v>
       </c>
       <c r="C20" t="str">
         <f>DEC2HEX(B20)</f>
-        <v>10F</v>
+        <v>2D</v>
       </c>
       <c r="D20">
         <f>IF(B20&gt;255,255,B20)</f>
-        <v>255</v>
+        <v>45.07</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
       </c>
       <c r="J20">
         <f>J16/256</f>
-        <v>255</v>
+        <v>0.35546875</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" ref="K20:K21" si="13">DEC2HEX(J20)</f>
-        <v>FF</v>
+        <f t="shared" ref="K20:K21" si="14">DEC2HEX(J20)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1931,22 +1946,22 @@
       </c>
       <c r="B21">
         <f>B17+128</f>
-        <v>128</v>
+        <v>255.5</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ref="C21:C22" si="14">DEC2HEX(B21)</f>
-        <v>80</v>
+        <f t="shared" ref="C21:C22" si="15">DEC2HEX(B21)</f>
+        <v>FF</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
       </c>
       <c r="J21">
         <f>J17/256</f>
-        <v>255</v>
+        <v>253.73046875</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="13"/>
-        <v>FF</v>
+        <f t="shared" si="14"/>
+        <v>FD</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1955,11 +1970,11 @@
       </c>
       <c r="B22">
         <f>B18+128</f>
-        <v>128</v>
+        <v>107.345</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="14"/>
-        <v>80</v>
+        <f t="shared" si="15"/>
+        <v>6B</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1973,7 +1988,7 @@
       </c>
       <c r="B24">
         <f>D10-B16</f>
-        <v>0</v>
+        <v>225.93</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
@@ -1985,7 +2000,7 @@
       </c>
       <c r="B25">
         <f>B10-B16</f>
-        <v>0</v>
+        <v>-29.07</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>

--- a/scripts/YCbCrcalculator.xlsx
+++ b/scripts/YCbCrcalculator.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tests\Drone_Cam\D2209\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Udi\work\AlexVideo\TxRx\D3010\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7282405-FC74-4BA6-8C5E-415C5D07726A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45CC481-A42E-4F2D-9598-6EEFAF9A8810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E92F24A-9A72-411F-A4AA-3DEDFFA6C1B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E92F24A-9A72-411F-A4AA-3DEDFFA6C1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="RGB2YCbCr&amp;BK" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="7" r:id="rId2"/>
+    <sheet name="DDS" sheetId="7" r:id="rId2"/>
+    <sheet name="גיליון1" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="117">
   <si>
     <t>R</t>
   </si>
@@ -68,19 +67,352 @@
   </si>
   <si>
     <t>F8</t>
+  </si>
+  <si>
+    <t>DDS FTW 
+REG_MSB 
+0x09</t>
+  </si>
+  <si>
+    <t>DDS FTW 
+REG_MSB-1 
+0x08</t>
+  </si>
+  <si>
+    <t>DDS OUTPUT 
+FREQUENCY
+[MHz]</t>
+  </si>
+  <si>
+    <t>5 bit PIXEL
+VALUE</t>
+  </si>
+  <si>
+    <t>00111100</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>58.593750000</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>00110000</t>
+  </si>
+  <si>
+    <t>58.776855469</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>01100000</t>
+  </si>
+  <si>
+    <t>58.959960938</t>
+  </si>
+  <si>
+    <t>00010</t>
+  </si>
+  <si>
+    <t>10010000</t>
+  </si>
+  <si>
+    <t>59.143066406</t>
+  </si>
+  <si>
+    <t>00011</t>
+  </si>
+  <si>
+    <t>11000000</t>
+  </si>
+  <si>
+    <t>59.326171875</t>
+  </si>
+  <si>
+    <t>00100</t>
+  </si>
+  <si>
+    <t>11110000</t>
+  </si>
+  <si>
+    <t>59.509277344</t>
+  </si>
+  <si>
+    <t>00101</t>
+  </si>
+  <si>
+    <t>00111101</t>
+  </si>
+  <si>
+    <t>00100000</t>
+  </si>
+  <si>
+    <t>59.692382813</t>
+  </si>
+  <si>
+    <t>00110</t>
+  </si>
+  <si>
+    <t>01010000</t>
+  </si>
+  <si>
+    <t>59.875488281</t>
+  </si>
+  <si>
+    <t>00111</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>60.058593750</t>
+  </si>
+  <si>
+    <t>01000</t>
+  </si>
+  <si>
+    <t>10110000</t>
+  </si>
+  <si>
+    <t>60.241699219</t>
+  </si>
+  <si>
+    <t>01001</t>
+  </si>
+  <si>
+    <t>11100000</t>
+  </si>
+  <si>
+    <t>60.424804688</t>
+  </si>
+  <si>
+    <t>01010</t>
+  </si>
+  <si>
+    <t>00111110</t>
+  </si>
+  <si>
+    <t>00010000</t>
+  </si>
+  <si>
+    <t>60.607910156</t>
+  </si>
+  <si>
+    <t>01011</t>
+  </si>
+  <si>
+    <t>01000000</t>
+  </si>
+  <si>
+    <t>60.791015625</t>
+  </si>
+  <si>
+    <t>01100</t>
+  </si>
+  <si>
+    <t>01110000</t>
+  </si>
+  <si>
+    <t>60.974121094</t>
+  </si>
+  <si>
+    <t>01101</t>
+  </si>
+  <si>
+    <t>10100000</t>
+  </si>
+  <si>
+    <t>61.157226563</t>
+  </si>
+  <si>
+    <t>01110</t>
+  </si>
+  <si>
+    <t>11010000</t>
+  </si>
+  <si>
+    <t>61.340332031</t>
+  </si>
+  <si>
+    <t>01111</t>
+  </si>
+  <si>
+    <t>00111111</t>
+  </si>
+  <si>
+    <t>61.523437500</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>61.706542969</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>61.889648438</t>
+  </si>
+  <si>
+    <t>10010</t>
+  </si>
+  <si>
+    <t>62.072753906</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>62.255859375</t>
+  </si>
+  <si>
+    <t>10100</t>
+  </si>
+  <si>
+    <t>62.438964844</t>
+  </si>
+  <si>
+    <t>10101</t>
+  </si>
+  <si>
+    <t>62.622070313</t>
+  </si>
+  <si>
+    <t>10110</t>
+  </si>
+  <si>
+    <t>62.805175781</t>
+  </si>
+  <si>
+    <t>10111</t>
+  </si>
+  <si>
+    <t>62.988281250</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>63.171386719</t>
+  </si>
+  <si>
+    <t>11001</t>
+  </si>
+  <si>
+    <t>63.354492188</t>
+  </si>
+  <si>
+    <t>11010</t>
+  </si>
+  <si>
+    <t>01000001</t>
+  </si>
+  <si>
+    <t>63.537597656</t>
+  </si>
+  <si>
+    <t>11011</t>
+  </si>
+  <si>
+    <t>63.720703125</t>
+  </si>
+  <si>
+    <t>11100</t>
+  </si>
+  <si>
+    <t>63.903808594</t>
+  </si>
+  <si>
+    <t>11101</t>
+  </si>
+  <si>
+    <t>64.086914063</t>
+  </si>
+  <si>
+    <t>11110</t>
+  </si>
+  <si>
+    <t>64.270019531</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pixel </t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>chessMath</t>
+  </si>
+  <si>
+    <t>MemAdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trasmit </t>
+  </si>
+  <si>
+    <t>Pixel calculations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frame time </t>
+  </si>
+  <si>
+    <t>Cam times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line time </t>
+  </si>
+  <si>
+    <t>clocks</t>
+  </si>
+  <si>
+    <t>480 LINES</t>
+  </si>
+  <si>
+    <t>wait time</t>
+  </si>
+  <si>
+    <t>time [uSec]</t>
+  </si>
+  <si>
+    <t>time [mSec]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -92,7 +424,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -100,12 +432,199 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,7 +643,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -423,19 +942,19 @@
   <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="11.25" customWidth="1"/>
+    <col min="13" max="13" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -531,7 +1050,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -575,7 +1094,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -622,7 +1141,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -671,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -723,7 +1242,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -775,7 +1294,7 @@
         <v>-0.71399999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X9" t="s">
         <v>2</v>
       </c>
@@ -789,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -826,7 +1345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
         <f>DEC2HEX(B11)</f>
         <v>1F</v>
@@ -860,7 +1379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="J13">
         <f>J11-$F$2</f>
         <v>15</v>
@@ -882,7 +1401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="J14" t="str">
         <f>DEC2HEX(J13)</f>
         <v>F</v>
@@ -904,7 +1423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -930,7 +1449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -994,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1058,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1122,7 +1641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K20">
         <f>J19+K19</f>
         <v>675</v>
@@ -1132,7 +1651,7 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1196,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1260,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1324,7 +1843,7 @@
         <v>1E</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K24" t="str">
         <f t="shared" si="17"/>
         <v>2A3</v>
@@ -1334,7 +1853,7 @@
         <v>FFFFFFFEE3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" t="str">
         <f>DEC2HEX(-1*B17)</f>
         <v>FFFFFFFECA</v>
@@ -1396,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" t="str">
         <f t="shared" ref="B26:D27" si="23">DEC2HEX(-1*B18)</f>
         <v>9B</v>
@@ -1458,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" t="str">
         <f t="shared" si="23"/>
         <v>FFFFFFFE10</v>
@@ -1527,935 +2046,767 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0CBE61-0C43-4158-B380-7163369F2382}">
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G28"/>
+      <selection activeCell="J34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="16" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="C2">
-        <v>0.114</v>
-      </c>
-      <c r="D2">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="F2">
-        <f>F1/2</f>
+      <c r="D7" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>-0.71399999999999997</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>-0.34399999999999997</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <f>HEX2DEC(R1)</f>
-        <v>248</v>
-      </c>
-      <c r="X2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y2">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="Z2">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="AA2">
-        <v>0.114</v>
-      </c>
-      <c r="AB2">
-        <v>0.40300000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>-0.16900000000000001</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-      <c r="D3">
-        <v>-0.33100000000000002</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="X3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y3">
-        <v>-0.16900000000000001</v>
-      </c>
-      <c r="Z3">
-        <v>-0.33100000000000002</v>
-      </c>
-      <c r="AA3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0.5</v>
-      </c>
-      <c r="C4">
-        <v>-8.1000000000000003E-2</v>
-      </c>
-      <c r="D4">
-        <v>-0.41899999999999998</v>
-      </c>
-      <c r="I4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="X4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y4">
-        <v>0.5</v>
-      </c>
-      <c r="Z4">
-        <v>-0.41899999999999998</v>
-      </c>
-      <c r="AA4">
-        <v>-8.1000000000000003E-2</v>
-      </c>
-      <c r="AB4">
-        <v>0.77300000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <f>ROUND($F$1*B2,0)</f>
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:D6" si="0">ROUND($F$1*C2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
+      <c r="C18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <f>ROUND($F$1*J2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ref="K6:N6" si="1">ROUND($F$1*K2,0)</f>
-        <v>-23</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="1"/>
-        <v>-11</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ref="B7:D8" si="2">ROUND($F$1*B3,0)</f>
-        <v>-5</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>-11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ref="J7:N8" si="3">ROUND($F$1*J3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="3"/>
+      <c r="C19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="X7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>1.403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>-13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="X8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>-0.34399999999999997</v>
-      </c>
-      <c r="AA8">
-        <v>-0.71399999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="X9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-      <c r="Z9">
-        <v>1.7729999999999999</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
+      <c r="C21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11">
-        <f>G19</f>
-        <v>31</v>
-      </c>
-      <c r="K11">
-        <f>G19</f>
-        <v>31</v>
-      </c>
-      <c r="L11">
-        <f>G18</f>
-        <v>11</v>
-      </c>
-      <c r="M11">
-        <f>G18</f>
-        <v>11</v>
-      </c>
-      <c r="N11">
-        <f>G17</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B12" t="str">
-        <f>DEC2HEX(B11)</f>
-        <v>1F</v>
-      </c>
-      <c r="C12" t="str">
-        <f>DEC2HEX(C11)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" ref="D12" si="4">DEC2HEX(D11)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" t="str">
-        <f>DEC2HEX(J11)</f>
-        <v>1F</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" ref="K12:N12" si="5">DEC2HEX(K11)</f>
-        <v>1F</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="J13">
-        <f>J11-$F$2</f>
-        <v>15</v>
-      </c>
-      <c r="K13">
-        <f>K11-$F$2</f>
-        <v>15</v>
-      </c>
-      <c r="L13">
-        <f>L11-$F$2</f>
-        <v>-5</v>
-      </c>
-      <c r="M13">
-        <f>M11-$F$2</f>
-        <v>-5</v>
-      </c>
-      <c r="N13">
-        <f>N11</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="J14" t="str">
-        <f>DEC2HEX(J13)</f>
-        <v>F</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" ref="K14:N14" si="6">DEC2HEX(K13)</f>
-        <v>F</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="6"/>
-        <v>FFFFFFFFFB</v>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="6"/>
-        <v>FFFFFFFFFB</v>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ref="B17:D19" si="7">B$11*B6</f>
-        <v>310</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f>SUM(B17:D17)</f>
-        <v>310</v>
-      </c>
-      <c r="F17">
-        <f>INT(E17/$F$1)</f>
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <f>F17</f>
-        <v>9</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <f>J$13*J6</f>
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f t="shared" ref="K17:N17" si="8">K$13*K6</f>
-        <v>-345</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="8"/>
-        <v>55</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="8"/>
-        <v>288</v>
-      </c>
-      <c r="O17">
-        <f>SUM(J17:N17)</f>
-        <v>-2</v>
-      </c>
-      <c r="P17">
-        <f>INT(O17/$F$1)</f>
-        <v>-1</v>
-      </c>
-      <c r="Q17">
-        <f>IF(P17&gt;($F$1-2),$F$1-1,IF(P17&lt;0,0,P17))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="7"/>
-        <v>-155</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <f>D$11*D7</f>
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f>SUM(B18:D18)</f>
-        <v>-155</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ref="F18:F19" si="9">INT(E18/$F$1)</f>
-        <v>-5</v>
-      </c>
-      <c r="G18">
-        <f>IF(F18+$F$2&gt;($F$1-1),$F$1-1,F18+$F$2)</f>
-        <v>11</v>
-      </c>
-      <c r="I18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18">
-        <f t="shared" ref="J18:N19" si="10">J$13*J7</f>
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="10"/>
-        <v>-160</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="10"/>
-        <v>-125</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="10"/>
-        <v>288</v>
-      </c>
-      <c r="O18">
-        <f t="shared" ref="O18:O19" si="11">SUM(J18:N18)</f>
-        <v>3</v>
-      </c>
-      <c r="P18">
-        <f t="shared" ref="P18:P19" si="12">INT(O18/$F$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" ref="Q18:Q19" si="13">IF(P18&gt;($F$1-2),$F$1-1,IF(P18&lt;0,0,P18))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="7"/>
-        <v>496</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <f>D$11*D8</f>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f>SUM(B19:D19)</f>
-        <v>496</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="G19">
-        <f>IF(F19+$F$2&gt;($F$1-1),$F$1-1,F19+$F$2)</f>
-        <v>31</v>
-      </c>
-      <c r="I19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="10"/>
-        <v>480</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="10"/>
-        <v>195</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="10"/>
-        <v>288</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="11"/>
-        <v>963</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" ref="B21:G23" si="14">DEC2HEX(B17)</f>
-        <v>136</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="14"/>
-        <v>136</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" t="str">
-        <f>DEC2HEX(J17)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" ref="K21:Q23" si="15">DEC2HEX(K17)</f>
-        <v>FFFFFFFEA7</v>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M21" t="str">
-        <f t="shared" si="15"/>
-        <v>37</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="15"/>
-        <v>120</v>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" si="15"/>
-        <v>FFFFFFFFFE</v>
-      </c>
-      <c r="P21" t="str">
-        <f t="shared" si="15"/>
-        <v>FFFFFFFFFF</v>
-      </c>
-      <c r="Q21" t="str">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="14"/>
-        <v>FFFFFFFF65</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="14"/>
-        <v>FFFFFFFF65</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="14"/>
-        <v>FFFFFFFFFB</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="14"/>
-        <v>B</v>
-      </c>
-      <c r="I22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" ref="J22:P23" si="16">DEC2HEX(J18)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" si="16"/>
-        <v>FFFFFFFF60</v>
-      </c>
-      <c r="M22" t="str">
-        <f t="shared" si="16"/>
-        <v>FFFFFFFF83</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="16"/>
-        <v>120</v>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="P22" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" t="str">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="14"/>
-        <v>1F0</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="14"/>
-        <v>1F0</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="14"/>
-        <v>1F</v>
-      </c>
-      <c r="I23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="16"/>
-        <v>1E0</v>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="16"/>
-        <v>C3</v>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M23" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="16"/>
-        <v>120</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="16"/>
-        <v>3C3</v>
-      </c>
-      <c r="P23" t="str">
-        <f t="shared" si="16"/>
-        <v>1E</v>
-      </c>
-      <c r="Q23" t="str">
-        <f t="shared" si="15"/>
-        <v>1E</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G26">
-        <f>G17*8</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G27">
-        <f t="shared" ref="G27:G28" si="17">G18*8</f>
+      <c r="C23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G28">
-        <f t="shared" si="17"/>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G30" t="str">
-        <f t="shared" ref="G30" si="18">DEC2HEX(G26)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G31" t="str">
-        <f t="shared" ref="G31" si="19">DEC2HEX(G27)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G32" t="str">
-        <f t="shared" ref="G32" si="20">DEC2HEX(G28)</f>
-        <v>F8</v>
-      </c>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D73813-2724-41C5-8256-BF291E5BDB8F}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3">
+        <v>640</v>
+      </c>
+      <c r="C3">
+        <v>480</v>
+      </c>
+      <c r="D3">
+        <f>B3*C3</f>
+        <v>307200</v>
+      </c>
+      <c r="E3" t="str">
+        <f>DEC2HEX(D3)</f>
+        <v>4B000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4">
+        <f>B3/2</f>
+        <v>320</v>
+      </c>
+      <c r="C4">
+        <v>480</v>
+      </c>
+      <c r="D4">
+        <f>B4*C4</f>
+        <v>153600</v>
+      </c>
+      <c r="E4" t="str">
+        <f>DEC2HEX(D4)</f>
+        <v>25800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5">
+        <f>B4/4</f>
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>480</v>
+      </c>
+      <c r="D5">
+        <f>B5*C5</f>
+        <v>38400</v>
+      </c>
+      <c r="E5" t="str">
+        <f>DEC2HEX(D5)</f>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6">
+        <f>2*B5</f>
+        <v>160</v>
+      </c>
+      <c r="C6">
+        <v>480</v>
+      </c>
+      <c r="D6">
+        <f>B6*C6</f>
+        <v>76800</v>
+      </c>
+      <c r="E6" t="str">
+        <f>DEC2HEX(D6)</f>
+        <v>12C00</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11">
+        <v>2097900</v>
+      </c>
+      <c r="C11">
+        <f>B11*8</f>
+        <v>16783200</v>
+      </c>
+      <c r="D11">
+        <f>C11/1000</f>
+        <v>16783.2</v>
+      </c>
+      <c r="E11">
+        <f>D11/1000</f>
+        <v>16.783200000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>3170</v>
+      </c>
+      <c r="C12">
+        <f>B12*8</f>
+        <v>25360</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:E12" si="0">C12/1000</f>
+        <v>25.36</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2.5360000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13">
+        <v>1520324</v>
+      </c>
+      <c r="C13">
+        <f>B13*8</f>
+        <v>12162592</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:E13" si="1">C13/1000</f>
+        <v>12162.592000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>12.162592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14">
+        <f>B11-B13</f>
+        <v>577576</v>
+      </c>
+      <c r="C14">
+        <f>C11-C13</f>
+        <v>4620608</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:E14" si="2">C14/1000</f>
+        <v>4620.6080000000002</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>4.6206079999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/scripts/YCbCrcalculator.xlsx
+++ b/scripts/YCbCrcalculator.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Udi\work\AlexVideo\TxRx\D3010\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tests\AlexVideo\receiver\D0411\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45CC481-A42E-4F2D-9598-6EEFAF9A8810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C48D70-B9CD-4D17-83FC-70B2CD91A6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E92F24A-9A72-411F-A4AA-3DEDFFA6C1B2}"/>
+    <workbookView xWindow="-28725" yWindow="75" windowWidth="31290" windowHeight="15075" xr2:uid="{0E92F24A-9A72-411F-A4AA-3DEDFFA6C1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="RGB2YCbCr&amp;BK" sheetId="6" r:id="rId1"/>
     <sheet name="DDS" sheetId="7" r:id="rId2"/>
     <sheet name="גיליון1" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="116">
   <si>
     <t>R</t>
   </si>
@@ -64,9 +66,6 @@
   </si>
   <si>
     <t>YCbCr</t>
-  </si>
-  <si>
-    <t>F8</t>
   </si>
   <si>
     <t>DDS FTW 
@@ -402,7 +401,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -411,7 +410,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -643,7 +642,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -939,22 +938,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97090DF3-BB24-4F34-9F73-6D280FDB1221}">
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="11.25" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -982,20 +983,32 @@
       <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" t="s">
-        <v>10</v>
+      <c r="V1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" t="s">
+        <v>7</v>
       </c>
       <c r="Y1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK1" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AL1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1030,27 +1043,41 @@
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="R2">
-        <f>HEX2DEC(R1)</f>
-        <v>248</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>-0.71399999999999997</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>-0.34399999999999997</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="s">
         <v>3</v>
       </c>
-      <c r="Y2">
+      <c r="AJ2">
         <v>0.29899999999999999</v>
       </c>
-      <c r="Z2">
+      <c r="AK2">
         <v>0.58699999999999997</v>
       </c>
-      <c r="AA2">
+      <c r="AL2">
         <v>0.114</v>
       </c>
-      <c r="AB2">
+      <c r="AM2">
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1081,20 +1108,38 @@
       <c r="N3">
         <v>1</v>
       </c>
-      <c r="X3" t="s">
+      <c r="U3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="s">
         <v>4</v>
       </c>
-      <c r="Y3">
+      <c r="AJ3">
         <v>-0.16900000000000001</v>
       </c>
-      <c r="Z3">
+      <c r="AK3">
         <v>-0.33100000000000002</v>
       </c>
-      <c r="AA3">
+      <c r="AL3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1125,23 +1170,41 @@
       <c r="N4">
         <v>1</v>
       </c>
-      <c r="X4" t="s">
+      <c r="U4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="s">
         <v>5</v>
       </c>
-      <c r="Y4">
+      <c r="AJ4">
         <v>0.5</v>
       </c>
-      <c r="Z4">
+      <c r="AK4">
         <v>-0.41899999999999998</v>
       </c>
-      <c r="AA4">
+      <c r="AL4">
         <v>-8.1000000000000003E-2</v>
       </c>
-      <c r="AB4">
+      <c r="AM4">
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1180,140 +1243,209 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="U6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <f>ROUND($F$1*V2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:Z6" si="2">ROUND($F$1*W2,0)</f>
+        <v>-23</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>3</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AK6" t="s">
         <v>4</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AL6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:D8" si="2">ROUND($F$1*B3,0)</f>
+        <f t="shared" ref="B7:D8" si="3">ROUND($F$1*B3,0)</f>
         <v>-5</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-11</v>
       </c>
       <c r="I7" t="s">
         <v>2</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:N8" si="3">ROUND($F$1*J3,0)</f>
+        <f t="shared" ref="J7:N8" si="4">ROUND($F$1*J3,0)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="M7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="X7" t="s">
-        <v>0</v>
+      <c r="U7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ref="V7:Z7" si="5">ROUND($F$1*V3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="5"/>
+        <v>32</v>
       </c>
       <c r="Y7">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
         <v>1</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
         <v>1.403</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-13</v>
       </c>
       <c r="I8" t="s">
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="L8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="X8" t="s">
+      <c r="U8" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" ref="V8:Z8" si="6">ROUND($F$1*V4,0)</f>
+        <v>32</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="AI8" t="s">
         <v>1</v>
       </c>
-      <c r="Y8">
+      <c r="AJ8">
         <v>1</v>
       </c>
-      <c r="Z8">
+      <c r="AK8">
         <v>-0.34399999999999997</v>
       </c>
-      <c r="AA8">
+      <c r="AL8">
         <v>-0.71399999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X9" t="s">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AI9" t="s">
         <v>2</v>
       </c>
-      <c r="Y9">
+      <c r="AJ9">
         <v>1</v>
       </c>
-      <c r="Z9">
+      <c r="AK9">
         <v>1.7729999999999999</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AL9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1326,104 +1458,187 @@
       </c>
       <c r="J11">
         <f>G19</f>
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="K11">
         <f>G19</f>
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="L11">
         <f>G18</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M11">
         <f>G18</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <f>G17</f>
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="V11">
+        <f>S19</f>
+        <v>16</v>
+      </c>
+      <c r="W11">
+        <f>S19</f>
+        <v>16</v>
+      </c>
+      <c r="X11">
+        <f>S18</f>
+        <v>16</v>
+      </c>
+      <c r="Y11">
+        <f>S18</f>
+        <v>16</v>
+      </c>
+      <c r="Z11">
+        <f>S17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>DEC2HEX(B11)</f>
-        <v>1F</v>
+        <v>0</v>
       </c>
       <c r="C12" t="str">
         <f>DEC2HEX(C11)</f>
         <v>0</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" ref="D12" si="4">DEC2HEX(D11)</f>
+        <f t="shared" ref="D12" si="7">DEC2HEX(D11)</f>
         <v>0</v>
       </c>
       <c r="J12" t="str">
         <f>DEC2HEX(J11)</f>
-        <v>1F</v>
+        <v>10</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" ref="K12:N12" si="5">DEC2HEX(K11)</f>
-        <v>1F</v>
+        <f t="shared" ref="K12:N12" si="8">DEC2HEX(K11)</f>
+        <v>10</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V12" t="str">
+        <f>DEC2HEX(V11)</f>
+        <v>10</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" ref="W12:Z12" si="9">DEC2HEX(W11)</f>
+        <v>10</v>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="J13">
         <f>J11-$F$2</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <f>K11-$F$2</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <f>L11-$F$2</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <f>M11-$F$2</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <f>N11</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f>V11-$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f>W11-$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f>X11-$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f>Y11-$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f>Z11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="J14" t="str">
         <f>DEC2HEX(J13)</f>
-        <v>F</v>
+        <v>0</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" ref="K14:N14" si="6">DEC2HEX(K13)</f>
-        <v>F</v>
+        <f t="shared" ref="K14:N14" si="10">DEC2HEX(K13)</f>
+        <v>0</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="6"/>
-        <v>FFFFFFFFFB</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="6"/>
-        <v>FFFFFFFFFB</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V14" t="str">
+        <f>DEC2HEX(V13)</f>
+        <v>0</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" ref="W14:Z14" si="11">DEC2HEX(W13)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -1448,34 +1663,49 @@
       <c r="N16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V16" t="s">
+        <v>6</v>
+      </c>
+      <c r="W16" t="s">
+        <v>5</v>
+      </c>
+      <c r="X16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:D19" si="7">B$11*B6</f>
-        <v>310</v>
+        <f t="shared" ref="B17:D19" si="12">B$11*B6</f>
+        <v>0</v>
       </c>
       <c r="C17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E17">
         <f>SUM(B17:D17)</f>
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <f>INT(E17/$F$1)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f>F17</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
         <v>1</v>
@@ -1485,44 +1715,85 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <f t="shared" ref="K17:N17" si="8">K$13*K6</f>
-        <v>-345</v>
+        <f t="shared" ref="K17:N17" si="13">K$13*K6</f>
+        <v>0</v>
       </c>
       <c r="L17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M17">
-        <f t="shared" si="8"/>
-        <v>55</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="8"/>
-        <v>288</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="O17">
         <f>SUM(J17:N17)</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <f>INT(O17/$F$1)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <f>IF(P17&gt;($F$1-2),$F$1-1,IF(P17&lt;0,0,P17))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <f>V$13*V6</f>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" ref="W17:Z17" si="14">W$13*W6</f>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f>SUM(V17:Z17)</f>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f>INT(AA17/$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <f>IF(AB17&gt;($F$1-2),$F$1-1,IF(AB17&lt;0,0,AB17))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18">
-        <f t="shared" si="7"/>
-        <v>-155</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="C18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D18">
@@ -1531,62 +1802,103 @@
       </c>
       <c r="E18">
         <f>SUM(B18:D18)</f>
-        <v>-155</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18:F19" si="9">INT(E18/$F$1)</f>
-        <v>-5</v>
+        <f t="shared" ref="F18:F19" si="15">INT(E18/$F$1)</f>
+        <v>0</v>
       </c>
       <c r="G18">
         <f>IF(F18+$F$2&gt;($F$1-1),$F$1-1,F18+$F$2)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
         <v>2</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:N19" si="10">J$13*J7</f>
+        <f t="shared" ref="J18:N19" si="16">J$13*J7</f>
         <v>0</v>
       </c>
       <c r="K18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="shared" si="10"/>
-        <v>-160</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="M18">
-        <f t="shared" si="10"/>
-        <v>-125</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="10"/>
-        <v>288</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="O18">
-        <f t="shared" ref="O18:O19" si="11">SUM(J18:N18)</f>
-        <v>3</v>
+        <f t="shared" ref="O18:O19" si="17">SUM(J18:N18)</f>
+        <v>0</v>
       </c>
       <c r="P18">
-        <f t="shared" ref="P18:P19" si="12">INT(O18/$F$1)</f>
+        <f t="shared" ref="P18:P19" si="18">INT(O18/$F$1)</f>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f t="shared" ref="Q18:Q19" si="13">IF(P18&gt;($F$1-2),$F$1-1,IF(P18&lt;0,0,P18))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q18:Q19" si="19">IF(P18&gt;($F$1-2),$F$1-1,IF(P18&lt;0,0,P18))</f>
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18">
+        <v>16</v>
+      </c>
+      <c r="U18" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ref="V18:Z18" si="20">V$13*V7</f>
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" ref="AA18:AA19" si="21">SUM(V18:Z18)</f>
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" ref="AB18:AB19" si="22">INT(AA18/$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" ref="AC18:AC19" si="23">IF(AB18&gt;($F$1-2),$F$1-1,IF(AB18&lt;0,0,AB18))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19">
-        <f t="shared" si="7"/>
-        <v>496</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="C19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D19">
@@ -1595,89 +1907,138 @@
       </c>
       <c r="E19">
         <f>SUM(B19:D19)</f>
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" si="9"/>
-        <v>15</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="G19">
         <f>IF(F19+$F$2&gt;($F$1-1),$F$1-1,F19+$F$2)</f>
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
         <v>0</v>
       </c>
       <c r="J19">
-        <f t="shared" si="10"/>
-        <v>480</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="K19">
-        <f t="shared" si="10"/>
-        <v>195</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="10"/>
-        <v>288</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="O19">
-        <f t="shared" si="11"/>
-        <v>963</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="P19">
-        <f t="shared" si="12"/>
-        <v>30</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>16</v>
+      </c>
+      <c r="U19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" ref="V19:Z19" si="24">V$13*V8</f>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="K20">
         <f>J19+K19</f>
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <f>L18+M18</f>
-        <v>-285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f>V19+W19</f>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f>X18+Y18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" ref="B21:G23" si="14">DEC2HEX(B17)</f>
-        <v>136</v>
+        <f t="shared" ref="B21:G23" si="25">DEC2HEX(B17)</f>
+        <v>0</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="14"/>
-        <v>136</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="14"/>
-        <v>9</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="14"/>
-        <v>9</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="I21" t="s">
         <v>1</v>
@@ -1687,356 +2048,577 @@
         <v>0</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" ref="K21:P21" si="15">DEC2HEX(K17)</f>
-        <v>FFFFFFFEA7</v>
+        <f t="shared" ref="K21:P21" si="26">DEC2HEX(K17)</f>
+        <v>0</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="15"/>
-        <v>37</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="15"/>
-        <v>120</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="15"/>
-        <v>FFFFFFFFFE</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="15"/>
-        <v>FFFFFFFFFF</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" ref="Q21" si="16">DEC2HEX(Q17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q21" si="27">DEC2HEX(Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" t="s">
+        <v>1</v>
+      </c>
+      <c r="V21" t="str">
+        <f>DEC2HEX(V17)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" ref="W21:AC23" si="28">DEC2HEX(W17)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" t="str">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" t="str">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="14"/>
-        <v>FFFFFFFF65</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="14"/>
-        <v>FFFFFFFF65</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="14"/>
-        <v>FFFFFFFFFB</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="14"/>
-        <v>B</v>
+        <f t="shared" si="25"/>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
         <v>2</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" ref="J22:P24" si="17">DEC2HEX(J18)</f>
+        <f t="shared" ref="J22:P24" si="29">DEC2HEX(J18)</f>
         <v>0</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="17"/>
-        <v>FFFFFFFF60</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="17"/>
-        <v>FFFFFFFF83</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="17"/>
-        <v>120</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="17"/>
-        <v>3</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" ref="Q22" si="18">DEC2HEX(Q18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q22" si="30">DEC2HEX(Q18)</f>
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" ref="V22:AB22" si="31">DEC2HEX(V18)</f>
+        <v>0</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" t="str">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="14"/>
-        <v>1F0</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="14"/>
-        <v>1F0</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="14"/>
-        <v>1F</v>
+        <f t="shared" si="25"/>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
         <v>0</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="17"/>
-        <v>1E0</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="17"/>
-        <v>C3</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="17"/>
-        <v>120</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="17"/>
-        <v>3C3</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="17"/>
-        <v>1E</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" ref="Q23" si="19">DEC2HEX(Q19)</f>
-        <v>1E</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q23" si="32">DEC2HEX(Q19)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" ref="V23:AB23" si="33">DEC2HEX(V19)</f>
+        <v>0</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="K24" t="str">
-        <f t="shared" si="17"/>
-        <v>2A3</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="17"/>
-        <v>FFFFFFFEE3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" ref="W24:AC24" si="34">DEC2HEX(W20)</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" ref="Y24:AC24" si="35">DEC2HEX(Y20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f>DEC2HEX(-1*B17)</f>
-        <v>FFFFFFFECA</v>
+        <v>0</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" ref="C25:D25" si="20">DEC2HEX(-1*C17)</f>
+        <f t="shared" ref="C25:D25" si="36">DEC2HEX(-1*C17)</f>
         <v>0</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" ref="E25:G25" si="21">DEC2HEX(-1*E17)</f>
-        <v>FFFFFFFECA</v>
+        <f t="shared" ref="E25:G25" si="37">DEC2HEX(-1*E17)</f>
+        <v>0</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="21"/>
-        <v>FFFFFFFFF7</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="21"/>
-        <v>FFFFFFFFF7</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" ref="H25:Q25" si="22">DEC2HEX(-1*H17)</f>
+        <f t="shared" ref="H25:Q25" si="38">DEC2HEX(-1*H17)</f>
         <v>0</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="22"/>
-        <v>159</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="22"/>
-        <v>FFFFFFFFC9</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="22"/>
-        <v>FFFFFFFEE0</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="22"/>
-        <v>2</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" ref="T25:AC25" si="39">DEC2HEX(-1*T17)</f>
+        <v>0</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" ref="V25:AC25" si="40">DEC2HEX(-1*V17)</f>
+        <v>0</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
-        <f t="shared" ref="B26:D27" si="23">DEC2HEX(-1*B18)</f>
-        <v>9B</v>
+        <f t="shared" ref="B26:D27" si="41">DEC2HEX(-1*B18)</f>
+        <v>0</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" ref="E26:G26" si="24">DEC2HEX(-1*E18)</f>
-        <v>9B</v>
+        <f t="shared" ref="E26:G26" si="42">DEC2HEX(-1*E18)</f>
+        <v>0</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="24"/>
-        <v>5</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="24"/>
-        <v>FFFFFFFFF5</v>
+        <f t="shared" si="42"/>
+        <v>FFFFFFFFF0</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" ref="H26:Q26" si="25">DEC2HEX(-1*H18)</f>
+        <f t="shared" ref="H26:Q26" si="43">DEC2HEX(-1*H18)</f>
         <v>0</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="25"/>
-        <v>A0</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="25"/>
-        <v>7D</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="25"/>
-        <v>FFFFFFFEE0</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="25"/>
-        <v>FFFFFFFFFD</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" ref="T26:AC26" si="44">DEC2HEX(-1*T18)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" ref="V26:AC26" si="45">DEC2HEX(-1*V18)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" t="str">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" t="str">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" t="str">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
-        <f t="shared" si="23"/>
-        <v>FFFFFFFE10</v>
+        <f t="shared" si="41"/>
+        <v>0</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" ref="E27:G27" si="26">DEC2HEX(-1*E19)</f>
-        <v>FFFFFFFE10</v>
+        <f t="shared" ref="E27:G27" si="46">DEC2HEX(-1*E19)</f>
+        <v>0</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="26"/>
-        <v>FFFFFFFFF1</v>
+        <f t="shared" si="46"/>
+        <v>0</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="26"/>
-        <v>FFFFFFFFE1</v>
+        <f t="shared" si="46"/>
+        <v>FFFFFFFFF0</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" ref="H27:Q27" si="27">DEC2HEX(-1*H19)</f>
+        <f t="shared" ref="H27:Q27" si="47">DEC2HEX(-1*H19)</f>
         <v>0</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="27"/>
-        <v>FFFFFFFE20</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="27"/>
-        <v>FFFFFFFF3D</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="27"/>
-        <v>FFFFFFFEE0</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="27"/>
-        <v>FFFFFFFC3D</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="27"/>
-        <v>FFFFFFFFE2</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="27"/>
-        <v>FFFFFFFFE2</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" ref="T27:AC27" si="48">DEC2HEX(-1*T19)</f>
+        <v>0</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" ref="V27:AC27" si="49">DEC2HEX(-1*V19)</f>
+        <v>0</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" t="str">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" t="str">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AC27" t="str">
+        <f t="shared" si="49"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2052,525 +2634,525 @@
       <selection activeCell="J34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="16" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="C23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="C28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C29" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="C31" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="C32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="C33" s="12" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="15"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="15"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="15"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="15"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="15"/>
       <c r="C42" s="14"/>
@@ -2589,40 +3171,40 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>101</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>102</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>104</v>
       </c>
       <c r="B3">
         <v>640</v>
@@ -2639,9 +3221,9 @@
         <v>4B000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <f>B3/2</f>
@@ -2659,9 +3241,9 @@
         <v>25800</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5">
         <f>B4/4</f>
@@ -2679,9 +3261,9 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6">
         <f>2*B5</f>
@@ -2699,30 +3281,30 @@
         <v>12C00</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
         <v>115</v>
       </c>
-      <c r="D10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11">
         <v>2097900</v>
@@ -2740,9 +3322,9 @@
         <v>16.783200000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12">
         <v>3170</v>
@@ -2760,9 +3342,9 @@
         <v>2.5360000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13">
         <v>1520324</v>
@@ -2780,9 +3362,9 @@
         <v>12.162592</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14">
         <f>B11-B13</f>

--- a/scripts/YCbCrcalculator.xlsx
+++ b/scripts/YCbCrcalculator.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tests\AlexVideo\receiver\D0411\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tests\AlexVideo\TxRx\D0711\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C48D70-B9CD-4D17-83FC-70B2CD91A6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A75FD7E-2C79-49FF-A6A4-935FCF7E880E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28725" yWindow="75" windowWidth="31290" windowHeight="15075" xr2:uid="{0E92F24A-9A72-411F-A4AA-3DEDFFA6C1B2}"/>
+    <workbookView xWindow="-29010" yWindow="420" windowWidth="28800" windowHeight="15075" activeTab="1" xr2:uid="{0E92F24A-9A72-411F-A4AA-3DEDFFA6C1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="RGB2YCbCr&amp;BK" sheetId="6" r:id="rId1"/>
-    <sheet name="DDS" sheetId="7" r:id="rId2"/>
+    <sheet name="16RGBYCbCr" sheetId="9" r:id="rId2"/>
     <sheet name="גיליון1" sheetId="8" r:id="rId3"/>
+    <sheet name="DDS" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="125">
   <si>
     <t>R</t>
   </si>
@@ -391,6 +392,33 @@
   </si>
   <si>
     <t>time [mSec]</t>
+  </si>
+  <si>
+    <t>Rh</t>
+  </si>
+  <si>
+    <t>Bh</t>
+  </si>
+  <si>
+    <t>Gh</t>
+  </si>
+  <si>
+    <t>1F</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -940,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97090DF3-BB24-4F34-9F73-6D280FDB1221}">
   <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -1023,7 +1051,7 @@
       </c>
       <c r="F2">
         <f>F1/2</f>
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
@@ -1210,15 +1238,15 @@
       </c>
       <c r="B6">
         <f>ROUND($F$1*B2,0)</f>
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:D6" si="0">ROUND($F$1*C2,0)</f>
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="I6" t="s">
         <v>1</v>
@@ -1229,7 +1257,7 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="1">ROUND($F$1*K2,0)</f>
-        <v>-23</v>
+        <v>-183</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
@@ -1237,11 +1265,11 @@
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>-11</v>
+        <v>-88</v>
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="U6" t="s">
         <v>1</v>
@@ -1252,7 +1280,7 @@
       </c>
       <c r="W6">
         <f t="shared" ref="W6:Z6" si="2">ROUND($F$1*W2,0)</f>
-        <v>-23</v>
+        <v>-183</v>
       </c>
       <c r="X6">
         <f t="shared" si="2"/>
@@ -1260,11 +1288,11 @@
       </c>
       <c r="Y6">
         <f t="shared" si="2"/>
-        <v>-11</v>
+        <v>-88</v>
       </c>
       <c r="Z6">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="AJ6" t="s">
         <v>3</v>
@@ -1282,15 +1310,15 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D8" si="3">ROUND($F$1*B3,0)</f>
-        <v>-5</v>
+        <v>-43</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>-11</v>
+        <v>-85</v>
       </c>
       <c r="I7" t="s">
         <v>2</v>
@@ -1305,15 +1333,15 @@
       </c>
       <c r="L7">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="M7">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="N7">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="U7" t="s">
         <v>2</v>
@@ -1328,15 +1356,15 @@
       </c>
       <c r="X7">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="Y7">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="Z7">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="AI7" t="s">
         <v>0</v>
@@ -1357,26 +1385,26 @@
       </c>
       <c r="B8">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
-        <v>-3</v>
+        <v>-21</v>
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
-        <v>-13</v>
+        <v>-107</v>
       </c>
       <c r="I8" t="s">
         <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="K8">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="L8">
         <f t="shared" si="4"/>
@@ -1388,18 +1416,18 @@
       </c>
       <c r="N8">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="U8" t="s">
         <v>0</v>
       </c>
       <c r="V8">
         <f t="shared" ref="V8:Z8" si="6">ROUND($F$1*V4,0)</f>
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="W8">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="X8">
         <f t="shared" si="6"/>
@@ -1411,7 +1439,7 @@
       </c>
       <c r="Z8">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="AI8" t="s">
         <v>1</v>
@@ -1445,36 +1473,36 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
       </c>
       <c r="J11">
         <f>G19</f>
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="K11">
         <f>G19</f>
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="L11">
         <f>G18</f>
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="M11">
         <f>G18</f>
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="N11">
         <f>G17</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="T11" t="s">
         <v>9</v>
@@ -1503,35 +1531,35 @@
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>DEC2HEX(B11)</f>
-        <v>0</v>
+        <v>FF</v>
       </c>
       <c r="C12" t="str">
         <f>DEC2HEX(C11)</f>
-        <v>0</v>
+        <v>FF</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" ref="D12" si="7">DEC2HEX(D11)</f>
-        <v>0</v>
+        <v>FF</v>
       </c>
       <c r="J12" t="str">
         <f>DEC2HEX(J11)</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" ref="K12:N12" si="8">DEC2HEX(K11)</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>FF</v>
       </c>
       <c r="V12" t="str">
         <f>DEC2HEX(V11)</f>
@@ -1573,23 +1601,23 @@
       </c>
       <c r="N13">
         <f>N11</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="V13">
         <f>V11-$F$2</f>
-        <v>0</v>
+        <v>-112</v>
       </c>
       <c r="W13">
         <f>W11-$F$2</f>
-        <v>0</v>
+        <v>-112</v>
       </c>
       <c r="X13">
         <f>X11-$F$2</f>
-        <v>0</v>
+        <v>-112</v>
       </c>
       <c r="Y13">
         <f>Y11-$F$2</f>
-        <v>0</v>
+        <v>-112</v>
       </c>
       <c r="Z13">
         <f>Z11</f>
@@ -1615,23 +1643,23 @@
       </c>
       <c r="N14" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>FF</v>
       </c>
       <c r="V14" t="str">
         <f>DEC2HEX(V13)</f>
-        <v>0</v>
+        <v>FFFFFFFF90</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" ref="W14:Z14" si="11">DEC2HEX(W13)</f>
-        <v>0</v>
+        <v>FFFFFFFF90</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>FFFFFFFF90</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>FFFFFFFF90</v>
       </c>
       <c r="Z14" t="str">
         <f t="shared" si="11"/>
@@ -1685,27 +1713,27 @@
       </c>
       <c r="B17">
         <f t="shared" ref="B17:D19" si="12">B$11*B6</f>
-        <v>0</v>
+        <v>19635</v>
       </c>
       <c r="C17">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>7395</v>
       </c>
       <c r="D17">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>38250</v>
       </c>
       <c r="E17">
         <f>SUM(B17:D17)</f>
-        <v>0</v>
+        <v>65280</v>
       </c>
       <c r="F17">
         <f>INT(E17/$F$1)</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="G17">
         <f>F17</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="I17" t="s">
         <v>1</v>
@@ -1728,19 +1756,19 @@
       </c>
       <c r="N17">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>65280</v>
       </c>
       <c r="O17">
         <f>SUM(J17:N17)</f>
-        <v>0</v>
+        <v>65280</v>
       </c>
       <c r="P17">
         <f>INT(O17/$F$1)</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="Q17">
         <f>IF(P17&gt;($F$1-2),$F$1-1,IF(P17&lt;0,0,P17))</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="R17" t="s">
         <v>3</v>
@@ -1757,7 +1785,7 @@
       </c>
       <c r="W17">
         <f t="shared" ref="W17:Z17" si="14">W$13*W6</f>
-        <v>0</v>
+        <v>20496</v>
       </c>
       <c r="X17">
         <f t="shared" si="14"/>
@@ -1765,7 +1793,7 @@
       </c>
       <c r="Y17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>9856</v>
       </c>
       <c r="Z17">
         <f t="shared" si="14"/>
@@ -1773,15 +1801,15 @@
       </c>
       <c r="AA17">
         <f>SUM(V17:Z17)</f>
-        <v>0</v>
+        <v>30352</v>
       </c>
       <c r="AB17">
         <f>INT(AA17/$F$1)</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="AC17">
         <f>IF(AB17&gt;($F$1-2),$F$1-1,IF(AB17&lt;0,0,AB17))</f>
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -1790,15 +1818,15 @@
       </c>
       <c r="B18">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-10965</v>
       </c>
       <c r="C18">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>32640</v>
       </c>
       <c r="D18">
         <f>D$11*D7</f>
-        <v>0</v>
+        <v>-21675</v>
       </c>
       <c r="E18">
         <f>SUM(B18:D18)</f>
@@ -1810,7 +1838,7 @@
       </c>
       <c r="G18">
         <f>IF(F18+$F$2&gt;($F$1-1),$F$1-1,F18+$F$2)</f>
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I18" t="s">
         <v>2</v>
@@ -1833,19 +1861,19 @@
       </c>
       <c r="N18">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>65280</v>
       </c>
       <c r="O18">
         <f t="shared" ref="O18:O19" si="17">SUM(J18:N18)</f>
-        <v>0</v>
+        <v>65280</v>
       </c>
       <c r="P18">
         <f t="shared" ref="P18:P19" si="18">INT(O18/$F$1)</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="Q18">
         <f t="shared" ref="Q18:Q19" si="19">IF(P18&gt;($F$1-2),$F$1-1,IF(P18&lt;0,0,P18))</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="R18" t="s">
         <v>4</v>
@@ -1866,11 +1894,11 @@
       </c>
       <c r="X18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-28672</v>
       </c>
       <c r="Y18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-22176</v>
       </c>
       <c r="Z18">
         <f t="shared" si="20"/>
@@ -1878,11 +1906,11 @@
       </c>
       <c r="AA18">
         <f t="shared" ref="AA18:AA19" si="21">SUM(V18:Z18)</f>
-        <v>0</v>
+        <v>-50848</v>
       </c>
       <c r="AB18">
         <f t="shared" ref="AB18:AB19" si="22">INT(AA18/$F$1)</f>
-        <v>0</v>
+        <v>-199</v>
       </c>
       <c r="AC18">
         <f t="shared" ref="AC18:AC19" si="23">IF(AB18&gt;($F$1-2),$F$1-1,IF(AB18&lt;0,0,AB18))</f>
@@ -1895,15 +1923,15 @@
       </c>
       <c r="B19">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>32640</v>
       </c>
       <c r="C19">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-5355</v>
       </c>
       <c r="D19">
         <f>D$11*D8</f>
-        <v>0</v>
+        <v>-27285</v>
       </c>
       <c r="E19">
         <f>SUM(B19:D19)</f>
@@ -1915,7 +1943,7 @@
       </c>
       <c r="G19">
         <f>IF(F19+$F$2&gt;($F$1-1),$F$1-1,F19+$F$2)</f>
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>0</v>
@@ -1938,19 +1966,19 @@
       </c>
       <c r="N19">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>65280</v>
       </c>
       <c r="O19">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>65280</v>
       </c>
       <c r="P19">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="Q19">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="R19" t="s">
         <v>5</v>
@@ -1963,11 +1991,11 @@
       </c>
       <c r="V19">
         <f t="shared" ref="V19:Z19" si="24">V$13*V8</f>
-        <v>0</v>
+        <v>-28672</v>
       </c>
       <c r="W19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-11536</v>
       </c>
       <c r="X19">
         <f t="shared" si="24"/>
@@ -1983,11 +2011,11 @@
       </c>
       <c r="AA19">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-40208</v>
       </c>
       <c r="AB19">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-158</v>
       </c>
       <c r="AC19">
         <f t="shared" si="23"/>
@@ -1995,6 +2023,10 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f>E18+32768</f>
+        <v>32768</v>
+      </c>
       <c r="K20">
         <f>J19+K19</f>
         <v>0</v>
@@ -2005,40 +2037,17 @@
       </c>
       <c r="W20">
         <f>V19+W19</f>
-        <v>0</v>
+        <v>-40208</v>
       </c>
       <c r="Y20">
         <f>X18+Y18</f>
-        <v>0</v>
+        <v>-50848</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" ref="B21:G23" si="25">DEC2HEX(B17)</f>
-        <v>0</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="25"/>
-        <v>0</v>
+      <c r="E21">
+        <f>E19+32768</f>
+        <v>32768</v>
       </c>
       <c r="I21" t="s">
         <v>1</v>
@@ -2048,32 +2057,32 @@
         <v>0</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" ref="K21:P21" si="26">DEC2HEX(K17)</f>
+        <f t="shared" ref="K21:P21" si="25">DEC2HEX(K17)</f>
         <v>0</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>FF00</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>FF00</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>FF</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" ref="Q21" si="27">DEC2HEX(Q17)</f>
-        <v>0</v>
+        <f t="shared" ref="Q21" si="26">DEC2HEX(Q17)</f>
+        <v>FF</v>
       </c>
       <c r="U21" t="s">
         <v>1</v>
@@ -2083,541 +2092,504 @@
         <v>0</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" ref="W21:AC23" si="28">DEC2HEX(W17)</f>
-        <v>0</v>
+        <f t="shared" ref="W21:AC23" si="27">DEC2HEX(W17)</f>
+        <v>5010</v>
       </c>
       <c r="X21" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Y21" t="str">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>2680</v>
       </c>
       <c r="Z21" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AA21" t="str">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>7690</v>
       </c>
       <c r="AB21" t="str">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>76</v>
       </c>
       <c r="AC21" t="str">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f>DEC2HEX(B17)</f>
+        <v>4CB3</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f>DEC2HEX(C17)</f>
+        <v>1CE3</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f>DEC2HEX(D17)</f>
+        <v>956A</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f>DEC2HEX(E17)</f>
+        <v>FF00</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f>DEC2HEX(F17)</f>
+        <v>FF</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="25"/>
-        <v>10</v>
+        <f>DEC2HEX(G17)</f>
+        <v>FF</v>
       </c>
       <c r="I22" t="s">
         <v>2</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" ref="J22:P24" si="29">DEC2HEX(J18)</f>
+        <f t="shared" ref="J22:P24" si="28">DEC2HEX(J18)</f>
         <v>0</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>FF00</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>FF00</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>FF</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" ref="Q22" si="30">DEC2HEX(Q18)</f>
-        <v>0</v>
+        <f t="shared" ref="Q22" si="29">DEC2HEX(Q18)</f>
+        <v>FF</v>
       </c>
       <c r="U22" t="s">
         <v>2</v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" ref="V22:AB22" si="31">DEC2HEX(V18)</f>
+        <f t="shared" ref="V22:AB22" si="30">DEC2HEX(V18)</f>
         <v>0</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="X22" t="str">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>FFFFFF9000</v>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>FFFFFFA960</v>
       </c>
       <c r="Z22" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA22" t="str">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>FFFFFF3960</v>
       </c>
       <c r="AB22" t="str">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>FFFFFFFF39</v>
       </c>
       <c r="AC22" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="str">
+        <f>DEC2HEX(B18)</f>
+        <v>FFFFFFD52B</v>
+      </c>
+      <c r="C23" t="str">
+        <f>DEC2HEX(C18)</f>
+        <v>7F80</v>
+      </c>
+      <c r="D23" t="str">
+        <f>DEC2HEX(D18)</f>
+        <v>FFFFFFAB55</v>
+      </c>
+      <c r="E23" t="str">
+        <f>DEC2HEX(E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <f>DEC2HEX(F18)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" t="str">
+        <f>DEC2HEX(G18)</f>
+        <v>80</v>
+      </c>
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="28"/>
+        <v>FF00</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="28"/>
+        <v>FF00</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="28"/>
+        <v>FF</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" ref="Q23" si="31">DEC2HEX(Q19)</f>
+        <v>FF</v>
+      </c>
+      <c r="U23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" ref="V23:AB23" si="32">DEC2HEX(V19)</f>
+        <v>FFFFFF9000</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="32"/>
+        <v>FFFFFFD2F0</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" si="32"/>
+        <v>FFFFFF62F0</v>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="32"/>
+        <v>FFFFFFFF62</v>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B23" t="str">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="25"/>
-        <v>10</v>
-      </c>
-      <c r="I23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M23" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="P23" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" t="str">
-        <f t="shared" ref="Q23" si="32">DEC2HEX(Q19)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" t="s">
-        <v>0</v>
-      </c>
-      <c r="V23" t="str">
-        <f t="shared" ref="V23:AB23" si="33">DEC2HEX(V19)</f>
-        <v>0</v>
-      </c>
-      <c r="W23" t="str">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="X23" t="str">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" t="str">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Z23" t="str">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA23" t="str">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AB23" t="str">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AC23" t="str">
+      <c r="B24" t="str">
+        <f>DEC2HEX(B19)</f>
+        <v>7F80</v>
+      </c>
+      <c r="C24" t="str">
+        <f>DEC2HEX(C19)</f>
+        <v>FFFFFFEB15</v>
+      </c>
+      <c r="D24" t="str">
+        <f>DEC2HEX(D19)</f>
+        <v>FFFFFF956B</v>
+      </c>
+      <c r="E24" t="str">
+        <f>DEC2HEX(E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" t="str">
+        <f>DEC2HEX(F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <f>DEC2HEX(G19)</f>
+        <v>80</v>
+      </c>
+      <c r="K24" t="str">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="K24" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
       <c r="M24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" ref="W24:AC24" si="34">DEC2HEX(W20)</f>
-        <v>0</v>
+        <f t="shared" ref="W24" si="33">DEC2HEX(W20)</f>
+        <v>FFFFFF62F0</v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" ref="Y24:AC24" si="35">DEC2HEX(Y20)</f>
-        <v>0</v>
+        <f t="shared" ref="Y24" si="34">DEC2HEX(Y20)</f>
+        <v>FFFFFF3960</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B25" t="str">
-        <f>DEC2HEX(-1*B17)</f>
-        <v>0</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" ref="C25:D25" si="36">DEC2HEX(-1*C17)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" t="str">
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E26" si="35">DEC2HEX(E20)</f>
+        <v>8000</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" ref="H25:Q25" si="36">DEC2HEX(-1*H17)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" t="str">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" ref="E25:G25" si="37">DEC2HEX(-1*E17)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" ref="H25:Q25" si="38">DEC2HEX(-1*H17)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" t="str">
+      <c r="K25" t="str">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="36"/>
+        <v>FFFFFF0100</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="36"/>
+        <v>FFFFFF0100</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="36"/>
+        <v>FFFFFFFF01</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="36"/>
+        <v>FFFFFFFF01</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" ref="T25" si="37">DEC2HEX(-1*T17)</f>
+        <v>0</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" ref="V25:AC25" si="38">DEC2HEX(-1*V17)</f>
+        <v>0</v>
+      </c>
+      <c r="W25" t="str">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="K25" t="str">
+        <v>FFFFFFAFF0</v>
+      </c>
+      <c r="X25" t="str">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="L25" t="str">
+      <c r="Y25" t="str">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="M25" t="str">
+        <v>FFFFFFD980</v>
+      </c>
+      <c r="Z25" t="str">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="N25" t="str">
+      <c r="AA25" t="str">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O25" t="str">
+        <v>FFFFFF8970</v>
+      </c>
+      <c r="AB25" t="str">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="P25" t="str">
+        <v>FFFFFFFF8A</v>
+      </c>
+      <c r="AC25" t="str">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" t="str">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" ref="T25:AC25" si="39">DEC2HEX(-1*T17)</f>
-        <v>0</v>
-      </c>
-      <c r="V25" t="str">
-        <f t="shared" ref="V25:AC25" si="40">DEC2HEX(-1*V17)</f>
-        <v>0</v>
-      </c>
-      <c r="W25" t="str">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="X25" t="str">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" t="str">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" t="str">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AA25" t="str">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AB25" t="str">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AC25" t="str">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <v>FFFFFFFF8A</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B26" t="str">
-        <f t="shared" ref="B26:D27" si="41">DEC2HEX(-1*B18)</f>
-        <v>0</v>
-      </c>
-      <c r="C26" t="str">
+      <c r="E26" t="str">
+        <f t="shared" si="35"/>
+        <v>8000</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" ref="H26:Q26" si="39">DEC2HEX(-1*H18)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="39"/>
+        <v>FFFFFF0100</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="39"/>
+        <v>FFFFFF0100</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="39"/>
+        <v>FFFFFFFF01</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="39"/>
+        <v>FFFFFFFF01</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" ref="T26" si="40">DEC2HEX(-1*T18)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" ref="V26:AC26" si="41">DEC2HEX(-1*V18)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" t="str">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="D26" t="str">
+      <c r="X26" t="str">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" ref="E26:G26" si="42">DEC2HEX(-1*E18)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" t="str">
+        <v>7000</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="41"/>
+        <v>56A0</v>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" t="str">
+        <f t="shared" si="41"/>
+        <v>C6A0</v>
+      </c>
+      <c r="AB26" t="str">
+        <f t="shared" si="41"/>
+        <v>C7</v>
+      </c>
+      <c r="AC26" t="str">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <f t="shared" ref="H27:Q27" si="42">DEC2HEX(-1*H19)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" t="str">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="G26" t="str">
+      <c r="K27" t="str">
         <f t="shared" si="42"/>
-        <v>FFFFFFFFF0</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" ref="H26:Q26" si="43">DEC2HEX(-1*H18)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="M26" t="str">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P26" t="str">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" t="str">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" ref="T26:AC26" si="44">DEC2HEX(-1*T18)</f>
-        <v>0</v>
-      </c>
-      <c r="V26" t="str">
-        <f t="shared" ref="V26:AC26" si="45">DEC2HEX(-1*V18)</f>
-        <v>0</v>
-      </c>
-      <c r="W26" t="str">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="X26" t="str">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" t="str">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" t="str">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" t="str">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AB26" t="str">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" t="str">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B27" t="str">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" ref="E27:G27" si="46">DEC2HEX(-1*E19)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="46"/>
-        <v>FFFFFFFFF0</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" ref="H27:Q27" si="47">DEC2HEX(-1*H19)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>FFFFFF0100</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>FFFFFF0100</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>FFFFFFFF01</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>FFFFFFFF01</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" ref="T27:AC27" si="48">DEC2HEX(-1*T19)</f>
+        <f t="shared" ref="T27" si="43">DEC2HEX(-1*T19)</f>
         <v>0</v>
       </c>
       <c r="V27" t="str">
-        <f t="shared" ref="V27:AC27" si="49">DEC2HEX(-1*V19)</f>
-        <v>0</v>
+        <f t="shared" ref="V27:AC27" si="44">DEC2HEX(-1*V19)</f>
+        <v>7000</v>
       </c>
       <c r="W27" t="str">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>2D10</v>
       </c>
       <c r="X27" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="Z27" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>9D10</v>
       </c>
       <c r="AB27" t="str">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>9E</v>
       </c>
       <c r="AC27" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -2627,536 +2599,1873 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0CBE61-0C43-4158-B380-7163369F2382}">
-  <dimension ref="A1:D42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6249159-9F39-4AFA-B02F-9986699ECC31}">
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="16" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>256</v>
+      </c>
+      <c r="H1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.114</v>
+      </c>
+      <c r="D2">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>HEX2DEC(H2)</f>
+        <v>31</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:M17" si="0">HEX2DEC(I2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>INT( ( (K2*$B$8+L2*$C$8+M2*$D$8) /$E$1) +($E$1/2))</f>
+        <v>143</v>
+      </c>
+      <c r="P2">
+        <f>INT(((K2*$B$7+L2*$C$7+M2*$D$7)/$E$1)+($E$1/2))</f>
+        <v>122</v>
+      </c>
+      <c r="Q2">
+        <f>INT((K2*$B$6+L2*$C$6+M2*$D$6)/$E$1)</f>
+        <v>9</v>
+      </c>
+      <c r="S2" t="str">
+        <f>DEC2HEX(IF(O2&lt;0,0,IF(O2&gt;($E$1-1),($E$1-1),O2)))</f>
+        <v>8F</v>
+      </c>
+      <c r="T2" t="str">
+        <f t="shared" ref="T2:U17" si="1">DEC2HEX(IF(P2&lt;0,0,IF(P2&gt;($E$1-1),($E$1-1),P2)))</f>
+        <v>7A</v>
+      </c>
+      <c r="U2" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>-0.33100000000000002</v>
+      </c>
+      <c r="H3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K17" si="2">HEX2DEC(H3)</f>
+        <v>31</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O17" si="3">INT( ( (K3*$B$8+L3*$C$8+M3*$D$8) /$E$1) +($E$1/2))</f>
+        <v>143</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P17" si="4">INT(((K3*$B$7+L3*$C$7+M3*$D$7)/$E$1)+($E$1/2))</f>
+        <v>122</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q17" si="5">INT((K3*$B$6+L3*$C$6+M3*$D$6)/$E$1)</f>
+        <v>9</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S17" si="6">DEC2HEX(IF(O3&lt;0,0,IF(O3&gt;($E$1-1),($E$1-1),O3)))</f>
+        <v>8F</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" si="1"/>
+        <v>7A</v>
+      </c>
+      <c r="U3" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="D4">
+        <v>-0.41899999999999998</v>
+      </c>
+      <c r="H4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="S4" t="str">
+        <f t="shared" si="6"/>
+        <v>8E</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="1"/>
+        <v>7A</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="S5" t="str">
+        <f t="shared" si="6"/>
+        <v>8E</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <f>ROUND($E$1*B2,0)</f>
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:D6" si="7">ROUND($E$1*C2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="H6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="6"/>
+        <v>8D</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:D8" si="8">ROUND($E$1*B3,0)</f>
+        <v>-43</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="8"/>
+        <v>-85</v>
+      </c>
+      <c r="H7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="S7" t="str">
+        <f t="shared" si="6"/>
+        <v>8D</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="8"/>
+        <v>-21</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="8"/>
+        <v>-107</v>
+      </c>
+      <c r="H8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="6"/>
+        <v>8C</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="S9" t="str">
+        <f t="shared" si="6"/>
+        <v>8C</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="S10" t="str">
+        <f t="shared" si="6"/>
+        <v>8C</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="6"/>
+        <v>8B</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="S12" t="str">
+        <f t="shared" si="6"/>
+        <v>8B</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="6"/>
+        <v>8A</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="S14" t="str">
+        <f t="shared" si="6"/>
+        <v>8A</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="6"/>
+        <v>8A</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="S16" t="str">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>-0.71399999999999997</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>-0.34399999999999997</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="str">
+        <f>S2</f>
+        <v>8F</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" ref="I20:J35" si="9">T2</f>
+        <v>7A</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <f>HEX2DEC(H20)</f>
+        <v>143</v>
+      </c>
+      <c r="L20">
+        <f>HEX2DEC(I20)</f>
+        <v>122</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20:M35" si="10">HEX2DEC(J20)</f>
+        <v>9</v>
+      </c>
+      <c r="O20">
+        <f>INT((  (K20-($E$1/2))*$B$26+(K20-($E$1/2))*$C$26+(L20-($E$1/2))*$D$26+(L20-($E$1/2))*$E$26+M20*$F$26)/$E$1)</f>
+        <v>30</v>
+      </c>
+      <c r="P20">
+        <f>INT(((K20-($E$1/2))*$B$25+(K20-($E$1/2))*$C$25+(L20-($E$1/2))*$D$25+(L20-($E$1/2))*$E$25+M20*$F$25)/$E$1)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q20">
+        <f>INT(((K20-($E$1/2))*$B$24+(K20-($E$1/2))*$C$24+(L20-($E$1/2))*$D$24+(L20-($E$1/2))*$E$24+M20*$F$24)/$E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" t="str">
+        <f>DEC2HEX(IF(O20&lt;0,0,IF(O20&gt;($E$1-1),($E$1-1),O20)))</f>
+        <v>1E</v>
+      </c>
+      <c r="T20" t="str">
+        <f>DEC2HEX(IF(P20&lt;0,0,IF(P20&gt;($E$1-1),($E$1-1),P20)))</f>
+        <v>0</v>
+      </c>
+      <c r="U20" t="str">
+        <f>DEC2HEX(IF(Q20&lt;0,0,IF(Q20&gt;($E$1-1),($E$1-1),Q20)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" ref="H21:H35" si="11">S3</f>
+        <v>8F</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="9"/>
+        <v>7A</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:L35" si="12">HEX2DEC(H21)</f>
+        <v>143</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="12"/>
+        <v>122</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="O21">
+        <f>INT(((K21-($E$1/2))*$B$26+(K21-($E$1/2))*$C$26+(L21-($E$1/2))*$D$26+(L21-($E$1/2))*$E$26+M21*$F$26)/$E$1)</f>
+        <v>30</v>
+      </c>
+      <c r="P21">
+        <f>INT(((K21-($E$1/2))*$B$25+(K21-($E$1/2))*$C$25+(L21-($E$1/2))*$D$25+(L21-($E$1/2))*$E$25+M21*$F$25)/$E$1)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q21">
+        <f>INT(((K21-($E$1/2))*$B$24+(K21-($E$1/2))*$C$24+(L21-($E$1/2))*$D$24+(L21-($E$1/2))*$E$24+M21*$F$24)/$E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" ref="S21:S35" si="13">DEC2HEX(IF(O21&lt;0,0,IF(O21&gt;($E$1-1),($E$1-1),O21)))</f>
+        <v>1E</v>
+      </c>
+      <c r="T21" t="str">
+        <f>DEC2HEX(IF(P21&lt;0,0,IF(P21&gt;($E$1-1),($E$1-1),P21)))</f>
+        <v>0</v>
+      </c>
+      <c r="U21" t="str">
+        <f>DEC2HEX(IF(Q21&lt;0,0,IF(Q21&gt;($E$1-1),($E$1-1),Q21)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="11"/>
+        <v>8E</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="9"/>
+        <v>7A</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="12"/>
+        <v>142</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="12"/>
+        <v>122</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="O22">
+        <f>INT(((K22-($E$1/2))*$B$26+(K22-($E$1/2))*$C$26+(L22-($E$1/2))*$D$26+(L22-($E$1/2))*$E$26+M22*$F$26)/$E$1)</f>
+        <v>29</v>
+      </c>
+      <c r="P22">
+        <f>INT(((K22-($E$1/2))*$B$25+(K22-($E$1/2))*$C$25+(L22-($E$1/2))*$D$25+(L22-($E$1/2))*$E$25+M22*$F$25)/$E$1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q22">
+        <f>INT(((K22-($E$1/2))*$B$24+(K22-($E$1/2))*$C$24+(L22-($E$1/2))*$D$24+(L22-($E$1/2))*$E$24+M22*$F$24)/$E$1)</f>
+        <v>2</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="13"/>
+        <v>1D</v>
+      </c>
+      <c r="T22" t="str">
+        <f>DEC2HEX(IF(P22&lt;0,0,IF(P22&gt;($E$1-1),($E$1-1),P22)))</f>
+        <v>0</v>
+      </c>
+      <c r="U22" t="str">
+        <f>DEC2HEX(IF(Q22&lt;0,0,IF(Q22&gt;($E$1-1),($E$1-1),Q22)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <f t="shared" si="11"/>
+        <v>8E</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="9"/>
+        <v>B</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="12"/>
+        <v>142</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="12"/>
+        <v>121</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="O23">
+        <f>INT(((K23-($E$1/2))*$B$26+(K23-($E$1/2))*$C$26+(L23-($E$1/2))*$D$26+(L23-($E$1/2))*$E$26+M23*$F$26)/$E$1)</f>
+        <v>30</v>
+      </c>
+      <c r="P23">
+        <f>INT(((K23-($E$1/2))*$B$25+(K23-($E$1/2))*$C$25+(L23-($E$1/2))*$D$25+(L23-($E$1/2))*$E$25+M23*$F$25)/$E$1)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q23">
+        <f>INT(((K23-($E$1/2))*$B$24+(K23-($E$1/2))*$C$24+(L23-($E$1/2))*$D$24+(L23-($E$1/2))*$E$24+M23*$F$24)/$E$1)</f>
+        <v>3</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="13"/>
+        <v>1E</v>
+      </c>
+      <c r="T23" t="str">
+        <f>DEC2HEX(IF(P23&lt;0,0,IF(P23&gt;($E$1-1),($E$1-1),P23)))</f>
+        <v>0</v>
+      </c>
+      <c r="U23" t="str">
+        <f>DEC2HEX(IF(Q23&lt;0,0,IF(Q23&gt;($E$1-1),($E$1-1),Q23)))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <f>ROUND($E$1*B20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:F24" si="14">ROUND($E$1*C20,0)</f>
+        <v>-183</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="14"/>
+        <v>-88</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="14"/>
+        <v>256</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="11"/>
+        <v>8D</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="9"/>
+        <v>B</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="12"/>
+        <v>141</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="12"/>
+        <v>121</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="O24">
+        <f>INT(((K24-($E$1/2))*$B$26+(K24-($E$1/2))*$C$26+(L24-($E$1/2))*$D$26+(L24-($E$1/2))*$E$26+M24*$F$26)/$E$1)</f>
+        <v>29</v>
+      </c>
+      <c r="P24">
+        <f>INT(((K24-($E$1/2))*$B$25+(K24-($E$1/2))*$C$25+(L24-($E$1/2))*$D$25+(L24-($E$1/2))*$E$25+M24*$F$25)/$E$1)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q24">
+        <f>INT(((K24-($E$1/2))*$B$24+(K24-($E$1/2))*$C$24+(L24-($E$1/2))*$D$24+(L24-($E$1/2))*$E$24+M24*$F$24)/$E$1)</f>
+        <v>4</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="13"/>
+        <v>1D</v>
+      </c>
+      <c r="T24" t="str">
+        <f>DEC2HEX(IF(P24&lt;0,0,IF(P24&gt;($E$1-1),($E$1-1),P24)))</f>
+        <v>0</v>
+      </c>
+      <c r="U24" t="str">
+        <f>DEC2HEX(IF(Q24&lt;0,0,IF(Q24&gt;($E$1-1),($E$1-1),Q24)))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:F26" si="15">ROUND($E$1*B21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="15"/>
+        <v>256</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="15"/>
+        <v>198</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="15"/>
+        <v>256</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="11"/>
+        <v>8D</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="12"/>
+        <v>141</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="12"/>
+        <v>121</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="O25">
+        <f>INT(((K25-($E$1/2))*$B$26+(K25-($E$1/2))*$C$26+(L25-($E$1/2))*$D$26+(L25-($E$1/2))*$E$26+M25*$F$26)/$E$1)</f>
+        <v>30</v>
+      </c>
+      <c r="P25">
+        <f>INT(((K25-($E$1/2))*$B$25+(K25-($E$1/2))*$C$25+(L25-($E$1/2))*$D$25+(L25-($E$1/2))*$E$25+M25*$F$25)/$E$1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q25">
+        <f>INT(((K25-($E$1/2))*$B$24+(K25-($E$1/2))*$C$24+(L25-($E$1/2))*$D$24+(L25-($E$1/2))*$E$24+M25*$F$24)/$E$1)</f>
+        <v>5</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="13"/>
+        <v>1E</v>
+      </c>
+      <c r="T25" t="str">
+        <f>DEC2HEX(IF(P25&lt;0,0,IF(P25&gt;($E$1-1),($E$1-1),P25)))</f>
+        <v>0</v>
+      </c>
+      <c r="U25" t="str">
+        <f>DEC2HEX(IF(Q25&lt;0,0,IF(Q25&gt;($E$1-1),($E$1-1),Q25)))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="15"/>
+        <v>256</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="15"/>
+        <v>103</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="15"/>
+        <v>256</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="11"/>
+        <v>8C</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="12"/>
+        <v>140</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="O26">
+        <f>INT(((K26-($E$1/2))*$B$26+(K26-($E$1/2))*$C$26+(L26-($E$1/2))*$D$26+(L26-($E$1/2))*$E$26+M26*$F$26)/$E$1)</f>
+        <v>28</v>
+      </c>
+      <c r="P26">
+        <f>INT(((K26-($E$1/2))*$B$25+(K26-($E$1/2))*$C$25+(L26-($E$1/2))*$D$25+(L26-($E$1/2))*$E$25+M26*$F$25)/$E$1)</f>
+        <v>-3</v>
+      </c>
+      <c r="Q26">
+        <f>INT(((K26-($E$1/2))*$B$24+(K26-($E$1/2))*$C$24+(L26-($E$1/2))*$D$24+(L26-($E$1/2))*$E$24+M26*$F$24)/$E$1)</f>
+        <v>6</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="13"/>
+        <v>1C</v>
+      </c>
+      <c r="T26" t="str">
+        <f>DEC2HEX(IF(P26&lt;0,0,IF(P26&gt;($E$1-1),($E$1-1),P26)))</f>
+        <v>0</v>
+      </c>
+      <c r="U26" t="str">
+        <f>DEC2HEX(IF(Q26&lt;0,0,IF(Q26&gt;($E$1-1),($E$1-1),Q26)))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <f t="shared" si="11"/>
+        <v>8C</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="9"/>
+        <v>D</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="12"/>
+        <v>140</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="O27">
+        <f>INT(((K27-($E$1/2))*$B$26+(K27-($E$1/2))*$C$26+(L27-($E$1/2))*$D$26+(L27-($E$1/2))*$E$26+M27*$F$26)/$E$1)</f>
+        <v>29</v>
+      </c>
+      <c r="P27">
+        <f>INT(((K27-($E$1/2))*$B$25+(K27-($E$1/2))*$C$25+(L27-($E$1/2))*$D$25+(L27-($E$1/2))*$E$25+M27*$F$25)/$E$1)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q27">
+        <f>INT(((K27-($E$1/2))*$B$24+(K27-($E$1/2))*$C$24+(L27-($E$1/2))*$D$24+(L27-($E$1/2))*$E$24+M27*$F$24)/$E$1)</f>
+        <v>7</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="13"/>
+        <v>1D</v>
+      </c>
+      <c r="T27" t="str">
+        <f>DEC2HEX(IF(P27&lt;0,0,IF(P27&gt;($E$1-1),($E$1-1),P27)))</f>
+        <v>0</v>
+      </c>
+      <c r="U27" t="str">
+        <f>DEC2HEX(IF(Q27&lt;0,0,IF(Q27&gt;($E$1-1),($E$1-1),Q27)))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <f t="shared" si="11"/>
+        <v>8C</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="9"/>
+        <v>E</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="12"/>
+        <v>140</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="O28">
+        <f>INT(((K28-($E$1/2))*$B$26+(K28-($E$1/2))*$C$26+(L28-($E$1/2))*$D$26+(L28-($E$1/2))*$E$26+M28*$F$26)/$E$1)</f>
+        <v>30</v>
+      </c>
+      <c r="P28">
+        <f>INT(((K28-($E$1/2))*$B$25+(K28-($E$1/2))*$C$25+(L28-($E$1/2))*$D$25+(L28-($E$1/2))*$E$25+M28*$F$25)/$E$1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q28">
+        <f>INT(((K28-($E$1/2))*$B$24+(K28-($E$1/2))*$C$24+(L28-($E$1/2))*$D$24+(L28-($E$1/2))*$E$24+M28*$F$24)/$E$1)</f>
+        <v>8</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="13"/>
+        <v>1E</v>
+      </c>
+      <c r="T28" t="str">
+        <f>DEC2HEX(IF(P28&lt;0,0,IF(P28&gt;($E$1-1),($E$1-1),P28)))</f>
+        <v>0</v>
+      </c>
+      <c r="U28" t="str">
+        <f>DEC2HEX(IF(Q28&lt;0,0,IF(Q28&gt;($E$1-1),($E$1-1),Q28)))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H29" t="str">
+        <f t="shared" si="11"/>
+        <v>8B</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="9"/>
+        <v>E</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="12"/>
+        <v>139</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="12"/>
+        <v>119</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="O29">
+        <f>INT(((K29-($E$1/2))*$B$26+(K29-($E$1/2))*$C$26+(L29-($E$1/2))*$D$26+(L29-($E$1/2))*$E$26+M29*$F$26)/$E$1)</f>
+        <v>29</v>
+      </c>
+      <c r="P29">
+        <f>INT(((K29-($E$1/2))*$B$25+(K29-($E$1/2))*$C$25+(L29-($E$1/2))*$D$25+(L29-($E$1/2))*$E$25+M29*$F$25)/$E$1)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q29">
+        <f>INT(((K29-($E$1/2))*$B$24+(K29-($E$1/2))*$C$24+(L29-($E$1/2))*$D$24+(L29-($E$1/2))*$E$24+M29*$F$24)/$E$1)</f>
+        <v>9</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="13"/>
+        <v>1D</v>
+      </c>
+      <c r="T29" t="str">
+        <f>DEC2HEX(IF(P29&lt;0,0,IF(P29&gt;($E$1-1),($E$1-1),P29)))</f>
+        <v>0</v>
+      </c>
+      <c r="U29" t="str">
+        <f>DEC2HEX(IF(Q29&lt;0,0,IF(Q29&gt;($E$1-1),($E$1-1),Q29)))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H30" t="str">
+        <f t="shared" si="11"/>
+        <v>8B</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="9"/>
+        <v>F</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="12"/>
+        <v>139</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="12"/>
+        <v>119</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="O30">
+        <f>INT(((K30-($E$1/2))*$B$26+(K30-($E$1/2))*$C$26+(L30-($E$1/2))*$D$26+(L30-($E$1/2))*$E$26+M30*$F$26)/$E$1)</f>
+        <v>30</v>
+      </c>
+      <c r="P30">
+        <f>INT(((K30-($E$1/2))*$B$25+(K30-($E$1/2))*$C$25+(L30-($E$1/2))*$D$25+(L30-($E$1/2))*$E$25+M30*$F$25)/$E$1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q30">
+        <f>INT(((K30-($E$1/2))*$B$24+(K30-($E$1/2))*$C$24+(L30-($E$1/2))*$D$24+(L30-($E$1/2))*$E$24+M30*$F$24)/$E$1)</f>
+        <v>10</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="13"/>
+        <v>1E</v>
+      </c>
+      <c r="T30" t="str">
+        <f>DEC2HEX(IF(P30&lt;0,0,IF(P30&gt;($E$1-1),($E$1-1),P30)))</f>
+        <v>0</v>
+      </c>
+      <c r="U30" t="str">
+        <f>DEC2HEX(IF(Q30&lt;0,0,IF(Q30&gt;($E$1-1),($E$1-1),Q30)))</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <f t="shared" si="11"/>
+        <v>8A</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="9"/>
+        <v>F</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="12"/>
+        <v>138</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="12"/>
+        <v>119</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="O31">
+        <f>INT(((K31-($E$1/2))*$B$26+(K31-($E$1/2))*$C$26+(L31-($E$1/2))*$D$26+(L31-($E$1/2))*$E$26+M31*$F$26)/$E$1)</f>
+        <v>29</v>
+      </c>
+      <c r="P31">
+        <f>INT(((K31-($E$1/2))*$B$25+(K31-($E$1/2))*$C$25+(L31-($E$1/2))*$D$25+(L31-($E$1/2))*$E$25+M31*$F$25)/$E$1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q31">
+        <f>INT(((K31-($E$1/2))*$B$24+(K31-($E$1/2))*$C$24+(L31-($E$1/2))*$D$24+(L31-($E$1/2))*$E$24+M31*$F$24)/$E$1)</f>
+        <v>10</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="13"/>
+        <v>1D</v>
+      </c>
+      <c r="T31" t="str">
+        <f>DEC2HEX(IF(P31&lt;0,0,IF(P31&gt;($E$1-1),($E$1-1),P31)))</f>
+        <v>0</v>
+      </c>
+      <c r="U31" t="str">
+        <f>DEC2HEX(IF(Q31&lt;0,0,IF(Q31&gt;($E$1-1),($E$1-1),Q31)))</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H32" t="str">
+        <f t="shared" si="11"/>
+        <v>8A</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="9"/>
+        <v>76</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="12"/>
+        <v>138</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="12"/>
+        <v>118</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="O32">
+        <f>INT(((K32-($E$1/2))*$B$26+(K32-($E$1/2))*$C$26+(L32-($E$1/2))*$D$26+(L32-($E$1/2))*$E$26+M32*$F$26)/$E$1)</f>
+        <v>30</v>
+      </c>
+      <c r="P32">
+        <f>INT(((K32-($E$1/2))*$B$25+(K32-($E$1/2))*$C$25+(L32-($E$1/2))*$D$25+(L32-($E$1/2))*$E$25+M32*$F$25)/$E$1)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q32">
+        <f>INT(((K32-($E$1/2))*$B$24+(K32-($E$1/2))*$C$24+(L32-($E$1/2))*$D$24+(L32-($E$1/2))*$E$24+M32*$F$24)/$E$1)</f>
+        <v>12</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="13"/>
+        <v>1E</v>
+      </c>
+      <c r="T32" t="str">
+        <f>DEC2HEX(IF(P32&lt;0,0,IF(P32&gt;($E$1-1),($E$1-1),P32)))</f>
+        <v>0</v>
+      </c>
+      <c r="U32" t="str">
+        <f>DEC2HEX(IF(Q32&lt;0,0,IF(Q32&gt;($E$1-1),($E$1-1),Q32)))</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="33" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H33" t="str">
+        <f t="shared" si="11"/>
+        <v>8A</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="9"/>
+        <v>76</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="12"/>
+        <v>138</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="12"/>
+        <v>118</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="O33">
+        <f>INT(((K33-($E$1/2))*$B$26+(K33-($E$1/2))*$C$26+(L33-($E$1/2))*$D$26+(L33-($E$1/2))*$E$26+M33*$F$26)/$E$1)</f>
+        <v>30</v>
+      </c>
+      <c r="P33">
+        <f>INT(((K33-($E$1/2))*$B$25+(K33-($E$1/2))*$C$25+(L33-($E$1/2))*$D$25+(L33-($E$1/2))*$E$25+M33*$F$25)/$E$1)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q33">
+        <f>INT(((K33-($E$1/2))*$B$24+(K33-($E$1/2))*$C$24+(L33-($E$1/2))*$D$24+(L33-($E$1/2))*$E$24+M33*$F$24)/$E$1)</f>
+        <v>12</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" si="13"/>
+        <v>1E</v>
+      </c>
+      <c r="T33" t="str">
+        <f>DEC2HEX(IF(P33&lt;0,0,IF(P33&gt;($E$1-1),($E$1-1),P33)))</f>
+        <v>0</v>
+      </c>
+      <c r="U33" t="str">
+        <f>DEC2HEX(IF(Q33&lt;0,0,IF(Q33&gt;($E$1-1),($E$1-1),Q33)))</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="34" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H34" t="str">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="9"/>
+        <v>76</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="12"/>
+        <v>137</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="12"/>
+        <v>118</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="O34">
+        <f>INT(((K34-($E$1/2))*$B$26+(K34-($E$1/2))*$C$26+(L34-($E$1/2))*$D$26+(L34-($E$1/2))*$E$26+M34*$F$26)/$E$1)</f>
+        <v>29</v>
+      </c>
+      <c r="P34">
+        <f>INT(((K34-($E$1/2))*$B$25+(K34-($E$1/2))*$C$25+(L34-($E$1/2))*$D$25+(L34-($E$1/2))*$E$25+M34*$F$25)/$E$1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q34">
+        <f>INT(((K34-($E$1/2))*$B$24+(K34-($E$1/2))*$C$24+(L34-($E$1/2))*$D$24+(L34-($E$1/2))*$E$24+M34*$F$24)/$E$1)</f>
+        <v>14</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="13"/>
+        <v>1D</v>
+      </c>
+      <c r="T34" t="str">
+        <f>DEC2HEX(IF(P34&lt;0,0,IF(P34&gt;($E$1-1),($E$1-1),P34)))</f>
+        <v>0</v>
+      </c>
+      <c r="U34" t="str">
+        <f>DEC2HEX(IF(Q34&lt;0,0,IF(Q34&gt;($E$1-1),($E$1-1),Q34)))</f>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="35" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H35" t="str">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="12"/>
+        <v>137</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="12"/>
+        <v>117</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="O35">
+        <f>INT(((K35-($E$1/2))*$B$26+(K35-($E$1/2))*$C$26+(L35-($E$1/2))*$D$26+(L35-($E$1/2))*$E$26+M35*$F$26)/$E$1)</f>
         <v>30</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="P35">
+        <f>INT(((K35-($E$1/2))*$B$25+(K35-($E$1/2))*$C$25+(L35-($E$1/2))*$D$25+(L35-($E$1/2))*$E$25+M35*$F$25)/$E$1)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q35">
+        <f>INT(((K35-($E$1/2))*$B$24+(K35-($E$1/2))*$C$24+(L35-($E$1/2))*$D$24+(L35-($E$1/2))*$E$24+M35*$F$24)/$E$1)</f>
         <v>15</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="S35" t="str">
+        <f t="shared" si="13"/>
+        <v>1E</v>
+      </c>
+      <c r="T35" t="str">
+        <f>DEC2HEX(IF(P35&lt;0,0,IF(P35&gt;($E$1-1),($E$1-1),P35)))</f>
+        <v>0</v>
+      </c>
+      <c r="U35" t="str">
+        <f>DEC2HEX(IF(Q35&lt;0,0,IF(Q35&gt;($E$1-1),($E$1-1),Q35)))</f>
+        <v>F</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3391,4 +4700,541 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0CBE61-0C43-4158-B380-7163369F2382}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/scripts/YCbCrcalculator.xlsx
+++ b/scripts/YCbCrcalculator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tests\AlexVideo\TxRx\D0711\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tests\AlexVideo\TxRx\D0911A\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A75FD7E-2C79-49FF-A6A4-935FCF7E880E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADC9A5C-42A9-42C8-AFD2-0F29ACB43FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29010" yWindow="420" windowWidth="28800" windowHeight="15075" activeTab="1" xr2:uid="{0E92F24A-9A72-411F-A4AA-3DEDFFA6C1B2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E92F24A-9A72-411F-A4AA-3DEDFFA6C1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="RGB2YCbCr&amp;BK" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="120">
   <si>
     <t>R</t>
   </si>
@@ -403,29 +403,14 @@
     <t>Gh</t>
   </si>
   <si>
-    <t>1F</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>F8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +425,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -968,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97090DF3-BB24-4F34-9F73-6D280FDB1221}">
   <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,36 +1465,36 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C11">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
       </c>
       <c r="J11">
         <f>G19</f>
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="K11">
         <f>G19</f>
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="L11">
         <f>G18</f>
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="M11">
         <f>G18</f>
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="N11">
         <f>G17</f>
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s">
         <v>9</v>
@@ -1531,35 +1523,35 @@
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>DEC2HEX(B11)</f>
-        <v>FF</v>
+        <v>F8</v>
       </c>
       <c r="C12" t="str">
         <f>DEC2HEX(C11)</f>
-        <v>FF</v>
+        <v>8</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" ref="D12" si="7">DEC2HEX(D11)</f>
-        <v>FF</v>
+        <v>8</v>
       </c>
       <c r="J12" t="str">
         <f>DEC2HEX(J11)</f>
-        <v>80</v>
+        <v>F8</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" ref="K12:N12" si="8">DEC2HEX(K11)</f>
-        <v>80</v>
+        <v>F8</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="8"/>
-        <v>FF</v>
+        <v>50</v>
       </c>
       <c r="V12" t="str">
         <f>DEC2HEX(V11)</f>
@@ -1585,23 +1577,23 @@
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="J13">
         <f>J11-$F$2</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K13">
         <f>K11-$F$2</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L13">
         <f>L11-$F$2</f>
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="M13">
         <f>M11-$F$2</f>
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="N13">
         <f>N11</f>
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="V13">
         <f>V11-$F$2</f>
@@ -1627,23 +1619,23 @@
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="J14" t="str">
         <f>DEC2HEX(J13)</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" ref="K14:N14" si="10">DEC2HEX(K13)</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>FFFFFFFFD7</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>FFFFFFFFD7</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="10"/>
-        <v>FF</v>
+        <v>50</v>
       </c>
       <c r="V14" t="str">
         <f>DEC2HEX(V13)</f>
@@ -1713,27 +1705,27 @@
       </c>
       <c r="B17">
         <f t="shared" ref="B17:D19" si="12">B$11*B6</f>
-        <v>19635</v>
+        <v>19096</v>
       </c>
       <c r="C17">
         <f t="shared" si="12"/>
-        <v>7395</v>
+        <v>232</v>
       </c>
       <c r="D17">
         <f t="shared" si="12"/>
-        <v>38250</v>
+        <v>1200</v>
       </c>
       <c r="E17">
         <f>SUM(B17:D17)</f>
-        <v>65280</v>
+        <v>20528</v>
       </c>
       <c r="F17">
         <f>INT(E17/$F$1)</f>
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="G17">
         <f>F17</f>
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s">
         <v>1</v>
@@ -1744,7 +1736,7 @@
       </c>
       <c r="K17">
         <f t="shared" ref="K17:N17" si="13">K$13*K6</f>
-        <v>0</v>
+        <v>-21960</v>
       </c>
       <c r="L17">
         <f t="shared" si="13"/>
@@ -1752,23 +1744,23 @@
       </c>
       <c r="M17">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3608</v>
       </c>
       <c r="N17">
         <f t="shared" si="13"/>
-        <v>65280</v>
+        <v>20480</v>
       </c>
       <c r="O17">
         <f>SUM(J17:N17)</f>
-        <v>65280</v>
+        <v>2128</v>
       </c>
       <c r="P17">
         <f>INT(O17/$F$1)</f>
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="Q17">
         <f>IF(P17&gt;($F$1-2),$F$1-1,IF(P17&lt;0,0,P17))</f>
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="R17" t="s">
         <v>3</v>
@@ -1818,27 +1810,27 @@
       </c>
       <c r="B18">
         <f t="shared" si="12"/>
-        <v>-10965</v>
+        <v>-10664</v>
       </c>
       <c r="C18">
         <f t="shared" si="12"/>
-        <v>32640</v>
+        <v>1024</v>
       </c>
       <c r="D18">
         <f>D$11*D7</f>
-        <v>-21675</v>
+        <v>-680</v>
       </c>
       <c r="E18">
         <f>SUM(B18:D18)</f>
-        <v>0</v>
+        <v>-10320</v>
       </c>
       <c r="F18">
         <f t="shared" ref="F18:F19" si="15">INT(E18/$F$1)</f>
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="G18">
         <f>IF(F18+$F$2&gt;($F$1-1),$F$1-1,F18+$F$2)</f>
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s">
         <v>2</v>
@@ -1853,27 +1845,27 @@
       </c>
       <c r="L18">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-10496</v>
       </c>
       <c r="M18">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-8118</v>
       </c>
       <c r="N18">
         <f t="shared" si="16"/>
-        <v>65280</v>
+        <v>20480</v>
       </c>
       <c r="O18">
         <f t="shared" ref="O18:O19" si="17">SUM(J18:N18)</f>
-        <v>65280</v>
+        <v>1866</v>
       </c>
       <c r="P18">
         <f t="shared" ref="P18:P19" si="18">INT(O18/$F$1)</f>
-        <v>255</v>
+        <v>7</v>
       </c>
       <c r="Q18">
         <f t="shared" ref="Q18:Q19" si="19">IF(P18&gt;($F$1-2),$F$1-1,IF(P18&lt;0,0,P18))</f>
-        <v>255</v>
+        <v>7</v>
       </c>
       <c r="R18" t="s">
         <v>4</v>
@@ -1923,38 +1915,38 @@
       </c>
       <c r="B19">
         <f t="shared" si="12"/>
-        <v>32640</v>
+        <v>31744</v>
       </c>
       <c r="C19">
         <f t="shared" si="12"/>
-        <v>-5355</v>
+        <v>-168</v>
       </c>
       <c r="D19">
         <f>D$11*D8</f>
-        <v>-27285</v>
+        <v>-856</v>
       </c>
       <c r="E19">
         <f>SUM(B19:D19)</f>
-        <v>0</v>
+        <v>30720</v>
       </c>
       <c r="F19">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G19">
         <f>IF(F19+$F$2&gt;($F$1-1),$F$1-1,F19+$F$2)</f>
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="I19" t="s">
         <v>0</v>
       </c>
       <c r="J19">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>30720</v>
       </c>
       <c r="K19">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>12360</v>
       </c>
       <c r="L19">
         <f t="shared" si="16"/>
@@ -1966,19 +1958,19 @@
       </c>
       <c r="N19">
         <f t="shared" si="16"/>
-        <v>65280</v>
+        <v>20480</v>
       </c>
       <c r="O19">
         <f t="shared" si="17"/>
-        <v>65280</v>
+        <v>63560</v>
       </c>
       <c r="P19">
         <f t="shared" si="18"/>
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Q19">
         <f t="shared" si="19"/>
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="R19" t="s">
         <v>5</v>
@@ -2025,15 +2017,15 @@
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E20">
         <f>E18+32768</f>
-        <v>32768</v>
+        <v>22448</v>
       </c>
       <c r="K20">
         <f>J19+K19</f>
-        <v>0</v>
+        <v>43080</v>
       </c>
       <c r="M20">
         <f>L18+M18</f>
-        <v>0</v>
+        <v>-18614</v>
       </c>
       <c r="W20">
         <f>V19+W19</f>
@@ -2047,7 +2039,7 @@
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E21">
         <f>E19+32768</f>
-        <v>32768</v>
+        <v>63488</v>
       </c>
       <c r="I21" t="s">
         <v>1</v>
@@ -2058,7 +2050,7 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" ref="K21:P21" si="25">DEC2HEX(K17)</f>
-        <v>0</v>
+        <v>FFFFFFAA38</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="25"/>
@@ -2066,23 +2058,23 @@
       </c>
       <c r="M21" t="str">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>E18</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="25"/>
-        <v>FF00</v>
+        <v>5000</v>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="25"/>
-        <v>FF00</v>
+        <v>850</v>
       </c>
       <c r="P21" t="str">
         <f t="shared" si="25"/>
-        <v>FF</v>
+        <v>8</v>
       </c>
       <c r="Q21" t="str">
         <f t="shared" ref="Q21" si="26">DEC2HEX(Q17)</f>
-        <v>FF</v>
+        <v>8</v>
       </c>
       <c r="U21" t="s">
         <v>1</v>
@@ -2125,93 +2117,93 @@
         <v>3</v>
       </c>
       <c r="B22" t="str">
-        <f>DEC2HEX(B17)</f>
-        <v>4CB3</v>
+        <f t="shared" ref="B22:G24" si="28">DEC2HEX(B17)</f>
+        <v>4A98</v>
       </c>
       <c r="C22" t="str">
-        <f>DEC2HEX(C17)</f>
-        <v>1CE3</v>
+        <f t="shared" si="28"/>
+        <v>E8</v>
       </c>
       <c r="D22" t="str">
-        <f>DEC2HEX(D17)</f>
-        <v>956A</v>
+        <f t="shared" si="28"/>
+        <v>4B0</v>
       </c>
       <c r="E22" t="str">
-        <f>DEC2HEX(E17)</f>
-        <v>FF00</v>
+        <f t="shared" si="28"/>
+        <v>5030</v>
       </c>
       <c r="F22" t="str">
-        <f>DEC2HEX(F17)</f>
-        <v>FF</v>
+        <f t="shared" si="28"/>
+        <v>50</v>
       </c>
       <c r="G22" t="str">
-        <f>DEC2HEX(G17)</f>
-        <v>FF</v>
+        <f t="shared" si="28"/>
+        <v>50</v>
       </c>
       <c r="I22" t="s">
         <v>2</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" ref="J22:P24" si="28">DEC2HEX(J18)</f>
+        <f t="shared" ref="J22:P24" si="29">DEC2HEX(J18)</f>
         <v>0</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>FFFFFFD700</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>FFFFFFE04A</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="28"/>
-        <v>FF00</v>
+        <f t="shared" si="29"/>
+        <v>5000</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="28"/>
-        <v>FF00</v>
+        <f t="shared" si="29"/>
+        <v>74A</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="28"/>
-        <v>FF</v>
+        <f t="shared" si="29"/>
+        <v>7</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" ref="Q22" si="29">DEC2HEX(Q18)</f>
-        <v>FF</v>
+        <f t="shared" ref="Q22" si="30">DEC2HEX(Q18)</f>
+        <v>7</v>
       </c>
       <c r="U22" t="s">
         <v>2</v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" ref="V22:AB22" si="30">DEC2HEX(V18)</f>
+        <f t="shared" ref="V22:AB22" si="31">DEC2HEX(V18)</f>
         <v>0</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="X22" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>FFFFFF9000</v>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>FFFFFFA960</v>
       </c>
       <c r="Z22" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AA22" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>FFFFFF3960</v>
       </c>
       <c r="AB22" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>FFFFFFFF39</v>
       </c>
       <c r="AC22" t="str">
@@ -2224,93 +2216,93 @@
         <v>4</v>
       </c>
       <c r="B23" t="str">
-        <f>DEC2HEX(B18)</f>
-        <v>FFFFFFD52B</v>
+        <f t="shared" si="28"/>
+        <v>FFFFFFD658</v>
       </c>
       <c r="C23" t="str">
-        <f>DEC2HEX(C18)</f>
-        <v>7F80</v>
+        <f t="shared" si="28"/>
+        <v>400</v>
       </c>
       <c r="D23" t="str">
-        <f>DEC2HEX(D18)</f>
-        <v>FFFFFFAB55</v>
+        <f t="shared" si="28"/>
+        <v>FFFFFFFD58</v>
       </c>
       <c r="E23" t="str">
-        <f>DEC2HEX(E18)</f>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>FFFFFFD7B0</v>
       </c>
       <c r="F23" t="str">
-        <f>DEC2HEX(F18)</f>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>FFFFFFFFD7</v>
       </c>
       <c r="G23" t="str">
-        <f>DEC2HEX(G18)</f>
-        <v>80</v>
+        <f t="shared" si="28"/>
+        <v>57</v>
       </c>
       <c r="I23" t="s">
         <v>0</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>7800</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>3048</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="28"/>
-        <v>FF00</v>
+        <f t="shared" si="29"/>
+        <v>5000</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="28"/>
-        <v>FF00</v>
+        <f t="shared" si="29"/>
+        <v>F848</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="28"/>
-        <v>FF</v>
+        <f t="shared" si="29"/>
+        <v>F8</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" ref="Q23" si="31">DEC2HEX(Q19)</f>
-        <v>FF</v>
+        <f t="shared" ref="Q23" si="32">DEC2HEX(Q19)</f>
+        <v>F8</v>
       </c>
       <c r="U23" t="s">
         <v>0</v>
       </c>
       <c r="V23" t="str">
-        <f t="shared" ref="V23:AB23" si="32">DEC2HEX(V19)</f>
+        <f t="shared" ref="V23:AB23" si="33">DEC2HEX(V19)</f>
         <v>FFFFFF9000</v>
       </c>
       <c r="W23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>FFFFFFD2F0</v>
       </c>
       <c r="X23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Y23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Z23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AA23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>FFFFFF62F0</v>
       </c>
       <c r="AB23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>FFFFFFFF62</v>
       </c>
       <c r="AC23" t="str">
@@ -2323,273 +2315,273 @@
         <v>5</v>
       </c>
       <c r="B24" t="str">
-        <f>DEC2HEX(B19)</f>
-        <v>7F80</v>
+        <f t="shared" si="28"/>
+        <v>7C00</v>
       </c>
       <c r="C24" t="str">
-        <f>DEC2HEX(C19)</f>
-        <v>FFFFFFEB15</v>
+        <f t="shared" si="28"/>
+        <v>FFFFFFFF58</v>
       </c>
       <c r="D24" t="str">
-        <f>DEC2HEX(D19)</f>
-        <v>FFFFFF956B</v>
+        <f t="shared" si="28"/>
+        <v>FFFFFFFCA8</v>
       </c>
       <c r="E24" t="str">
-        <f>DEC2HEX(E19)</f>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>7800</v>
       </c>
       <c r="F24" t="str">
-        <f>DEC2HEX(F19)</f>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>78</v>
       </c>
       <c r="G24" t="str">
-        <f>DEC2HEX(G19)</f>
-        <v>80</v>
+        <f t="shared" si="28"/>
+        <v>F8</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>A848</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>FFFFFFB74A</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" ref="W24" si="33">DEC2HEX(W20)</f>
+        <f t="shared" ref="W24" si="34">DEC2HEX(W20)</f>
         <v>FFFFFF62F0</v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" ref="Y24" si="34">DEC2HEX(Y20)</f>
+        <f t="shared" ref="Y24" si="35">DEC2HEX(Y20)</f>
         <v>FFFFFF3960</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E25" t="str">
-        <f t="shared" ref="E25:E26" si="35">DEC2HEX(E20)</f>
-        <v>8000</v>
+        <f t="shared" ref="E25:E26" si="36">DEC2HEX(E20)</f>
+        <v>57B0</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" ref="H25:Q25" si="36">DEC2HEX(-1*H17)</f>
+        <f t="shared" ref="H25:Q25" si="37">DEC2HEX(-1*H17)</f>
         <v>0</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>55C8</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>FFFFFFF1E8</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="36"/>
-        <v>FFFFFF0100</v>
+        <f t="shared" si="37"/>
+        <v>FFFFFFB000</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="36"/>
-        <v>FFFFFF0100</v>
+        <f t="shared" si="37"/>
+        <v>FFFFFFF7B0</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="36"/>
-        <v>FFFFFFFF01</v>
+        <f t="shared" si="37"/>
+        <v>FFFFFFFFF8</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="36"/>
-        <v>FFFFFFFF01</v>
+        <f t="shared" si="37"/>
+        <v>FFFFFFFFF8</v>
       </c>
       <c r="T25" t="str">
-        <f t="shared" ref="T25" si="37">DEC2HEX(-1*T17)</f>
+        <f t="shared" ref="T25" si="38">DEC2HEX(-1*T17)</f>
         <v>0</v>
       </c>
       <c r="V25" t="str">
-        <f t="shared" ref="V25:AC25" si="38">DEC2HEX(-1*V17)</f>
+        <f t="shared" ref="V25:AC25" si="39">DEC2HEX(-1*V17)</f>
         <v>0</v>
       </c>
       <c r="W25" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>FFFFFFAFF0</v>
       </c>
       <c r="X25" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>FFFFFFD980</v>
       </c>
       <c r="Z25" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA25" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>FFFFFF8970</v>
       </c>
       <c r="AB25" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>FFFFFFFF8A</v>
       </c>
       <c r="AC25" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>FFFFFFFF8A</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E26" t="str">
-        <f t="shared" si="35"/>
-        <v>8000</v>
+        <f t="shared" si="36"/>
+        <v>F800</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" ref="H26:Q26" si="39">DEC2HEX(-1*H18)</f>
+        <f t="shared" ref="H26:Q26" si="40">DEC2HEX(-1*H18)</f>
         <v>0</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>2900</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>1FB6</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="39"/>
-        <v>FFFFFF0100</v>
+        <f t="shared" si="40"/>
+        <v>FFFFFFB000</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="39"/>
-        <v>FFFFFF0100</v>
+        <f t="shared" si="40"/>
+        <v>FFFFFFF8B6</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="39"/>
-        <v>FFFFFFFF01</v>
+        <f t="shared" si="40"/>
+        <v>FFFFFFFFF9</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="39"/>
-        <v>FFFFFFFF01</v>
+        <f t="shared" si="40"/>
+        <v>FFFFFFFFF9</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" ref="T26" si="40">DEC2HEX(-1*T18)</f>
+        <f t="shared" ref="T26" si="41">DEC2HEX(-1*T18)</f>
         <v>0</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" ref="V26:AC26" si="41">DEC2HEX(-1*V18)</f>
+        <f t="shared" ref="V26:AC26" si="42">DEC2HEX(-1*V18)</f>
         <v>0</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X26" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7000</v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>56A0</v>
       </c>
       <c r="Z26" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>C6A0</v>
       </c>
       <c r="AB26" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>C7</v>
       </c>
       <c r="AC26" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H27" t="str">
-        <f t="shared" ref="H27:Q27" si="42">DEC2HEX(-1*H19)</f>
+        <f t="shared" ref="H27:Q27" si="43">DEC2HEX(-1*H19)</f>
         <v>0</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>FFFFFF8800</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>FFFFFFCFB8</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="42"/>
-        <v>FFFFFF0100</v>
+        <f t="shared" si="43"/>
+        <v>FFFFFFB000</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="42"/>
-        <v>FFFFFF0100</v>
+        <f t="shared" si="43"/>
+        <v>FFFFFF07B8</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="42"/>
-        <v>FFFFFFFF01</v>
+        <f t="shared" si="43"/>
+        <v>FFFFFFFF08</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="42"/>
-        <v>FFFFFFFF01</v>
+        <f t="shared" si="43"/>
+        <v>FFFFFFFF08</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" ref="T27" si="43">DEC2HEX(-1*T19)</f>
+        <f t="shared" ref="T27" si="44">DEC2HEX(-1*T19)</f>
         <v>0</v>
       </c>
       <c r="V27" t="str">
-        <f t="shared" ref="V27:AC27" si="44">DEC2HEX(-1*V19)</f>
+        <f t="shared" ref="V27:AC27" si="45">DEC2HEX(-1*V19)</f>
         <v>7000</v>
       </c>
       <c r="W27" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2D10</v>
       </c>
       <c r="X27" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Z27" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9D10</v>
       </c>
       <c r="AB27" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9E</v>
       </c>
       <c r="AC27" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -2602,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6249159-9F39-4AFA-B02F-9986699ECC31}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2682,7 +2674,7 @@
       </c>
       <c r="K2">
         <f>HEX2DEC(H2)</f>
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:M17" si="0">HEX2DEC(I2)</f>
@@ -2694,27 +2686,27 @@
       </c>
       <c r="O2">
         <f>INT( ( (K2*$B$8+L2*$C$8+M2*$D$8) /$E$1) +($E$1/2))</f>
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="P2">
         <f>INT(((K2*$B$7+L2*$C$7+M2*$D$7)/$E$1)+($E$1/2))</f>
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="Q2">
         <f>INT((K2*$B$6+L2*$C$6+M2*$D$6)/$E$1)</f>
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="S2" t="str">
         <f>DEC2HEX(IF(O2&lt;0,0,IF(O2&gt;($E$1-1),($E$1-1),O2)))</f>
-        <v>8F</v>
+        <v>FC</v>
       </c>
       <c r="T2" t="str">
         <f t="shared" ref="T2:U17" si="1">DEC2HEX(IF(P2&lt;0,0,IF(P2&gt;($E$1-1),($E$1-1),P2)))</f>
-        <v>7A</v>
+        <v>56</v>
       </c>
       <c r="U2" t="str">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>4A</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -2737,11 +2729,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K17" si="2">HEX2DEC(H3)</f>
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
@@ -2749,31 +2741,31 @@
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O17" si="3">INT( ( (K3*$B$8+L3*$C$8+M3*$D$8) /$E$1) +($E$1/2))</f>
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P17" si="4">INT(((K3*$B$7+L3*$C$7+M3*$D$7)/$E$1)+($E$1/2))</f>
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q17" si="5">INT((K3*$B$6+L3*$C$6+M3*$D$6)/$E$1)</f>
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="S3" t="str">
         <f t="shared" ref="S3:S17" si="6">DEC2HEX(IF(O3&lt;0,0,IF(O3&gt;($E$1-1),($E$1-1),O3)))</f>
-        <v>8F</v>
+        <v>F8</v>
       </c>
       <c r="T3" t="str">
         <f t="shared" si="1"/>
-        <v>7A</v>
+        <v>53</v>
       </c>
       <c r="U3" t="str">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>4F</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -2796,11 +2788,11 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
@@ -2808,31 +2800,31 @@
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="O4">
         <f t="shared" si="3"/>
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="P4">
         <f t="shared" si="4"/>
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="Q4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="S4" t="str">
         <f t="shared" si="6"/>
-        <v>8E</v>
+        <v>F5</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="1"/>
-        <v>7A</v>
+        <v>51</v>
       </c>
       <c r="U4" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -2843,11 +2835,11 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
@@ -2855,31 +2847,31 @@
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="O5">
         <f t="shared" si="3"/>
-        <v>142</v>
+        <v>241</v>
       </c>
       <c r="P5">
         <f t="shared" si="4"/>
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="Q5">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="S5" t="str">
         <f t="shared" si="6"/>
-        <v>8E</v>
+        <v>F1</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>4E</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" si="1"/>
-        <v>B</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -2905,11 +2897,11 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
@@ -2917,31 +2909,31 @@
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="O6">
         <f t="shared" si="3"/>
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="P6">
         <f t="shared" si="4"/>
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="Q6">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" si="6"/>
-        <v>8D</v>
+        <v>EE</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>4B</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="1"/>
-        <v>B</v>
+        <v>5D</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -2967,11 +2959,11 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
@@ -2979,31 +2971,31 @@
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="O7">
         <f t="shared" si="3"/>
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="P7">
         <f t="shared" si="4"/>
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="Q7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="S7" t="str">
         <f t="shared" si="6"/>
-        <v>8D</v>
+        <v>EB</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="1"/>
-        <v>C</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -3029,11 +3021,11 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="K8">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
@@ -3041,31 +3033,31 @@
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="O8">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="P8">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="Q8">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="6"/>
-        <v>8C</v>
+        <v>E7</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="1"/>
-        <v>C</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -3076,11 +3068,11 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
@@ -3088,31 +3080,31 @@
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="O9">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="P9">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="Q9">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="S9" t="str">
         <f t="shared" si="6"/>
-        <v>8C</v>
+        <v>E4</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="1"/>
-        <v>D</v>
+        <v>6B</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -3123,11 +3115,11 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
@@ -3135,31 +3127,31 @@
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="P10">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="Q10">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="S10" t="str">
         <f t="shared" si="6"/>
-        <v>8C</v>
+        <v>E1</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="1"/>
-        <v>E</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -3170,11 +3162,11 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
@@ -3182,31 +3174,31 @@
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="P11">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="Q11">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" si="6"/>
-        <v>8B</v>
+        <v>DD</v>
       </c>
       <c r="T11" t="str">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>3E</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="1"/>
-        <v>E</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -3216,12 +3208,12 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
-        <v>120</v>
+      <c r="J12">
+        <v>50</v>
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
@@ -3229,31 +3221,31 @@
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="P12">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="Q12">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="S12" t="str">
         <f t="shared" si="6"/>
-        <v>8B</v>
+        <v>DA</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>3B</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -3263,12 +3255,12 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
-        <v>2</v>
+      <c r="J13">
+        <v>58</v>
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
@@ -3276,31 +3268,31 @@
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="P13">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="Q13">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="S13" t="str">
         <f t="shared" si="6"/>
-        <v>8A</v>
+        <v>D7</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>7E</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -3310,12 +3302,12 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
-        <v>121</v>
+      <c r="J14">
+        <v>60</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
@@ -3323,31 +3315,31 @@
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="P14">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="Q14">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="S14" t="str">
         <f t="shared" si="6"/>
-        <v>8A</v>
+        <v>D3</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -3357,12 +3349,12 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
-        <v>122</v>
+      <c r="J15">
+        <v>68</v>
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
@@ -3370,31 +3362,31 @@
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="P15">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="Q15">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="S15" t="str">
         <f t="shared" si="6"/>
-        <v>8A</v>
+        <v>D0</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -3404,12 +3396,12 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
-        <v>123</v>
+      <c r="J16">
+        <v>70</v>
       </c>
       <c r="K16">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
@@ -3417,31 +3409,31 @@
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="Q16">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" si="6"/>
-        <v>89</v>
+        <v>CD</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="U16" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>8C</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -3451,12 +3443,12 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
-        <v>124</v>
+      <c r="J17">
+        <v>78</v>
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
@@ -3464,31 +3456,31 @@
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="P17">
         <f t="shared" si="4"/>
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="Q17">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="S17" t="str">
         <f t="shared" si="6"/>
-        <v>89</v>
+        <v>C9</v>
       </c>
       <c r="T17" t="str">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>2E</v>
       </c>
       <c r="U17" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -3565,43 +3557,43 @@
       </c>
       <c r="H20" t="str">
         <f>S2</f>
-        <v>8F</v>
+        <v>FC</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" ref="I20:J35" si="9">T2</f>
-        <v>7A</v>
+        <v>56</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>4A</v>
       </c>
       <c r="K20">
         <f>HEX2DEC(H20)</f>
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="L20">
         <f>HEX2DEC(I20)</f>
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="M20">
         <f t="shared" ref="M20:M35" si="10">HEX2DEC(J20)</f>
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="O20">
         <f>INT((  (K20-($E$1/2))*$B$26+(K20-($E$1/2))*$C$26+(L20-($E$1/2))*$D$26+(L20-($E$1/2))*$E$26+M20*$F$26)/$E$1)</f>
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="P20">
-        <f>INT(((K20-($E$1/2))*$B$25+(K20-($E$1/2))*$C$25+(L20-($E$1/2))*$D$25+(L20-($E$1/2))*$E$25+M20*$F$25)/$E$1)</f>
-        <v>-2</v>
+        <f t="shared" ref="P20:P35" si="11">INT(((K20-($E$1/2))*$B$25+(K20-($E$1/2))*$C$25+(L20-($E$1/2))*$D$25+(L20-($E$1/2))*$E$25+M20*$F$25)/$E$1)</f>
+        <v>-1</v>
       </c>
       <c r="Q20">
-        <f>INT(((K20-($E$1/2))*$B$24+(K20-($E$1/2))*$C$24+(L20-($E$1/2))*$D$24+(L20-($E$1/2))*$E$24+M20*$F$24)/$E$1)</f>
-        <v>0</v>
+        <f t="shared" ref="Q20:Q35" si="12">INT(((K20-($E$1/2))*$B$24+(K20-($E$1/2))*$C$24+(L20-($E$1/2))*$D$24+(L20-($E$1/2))*$E$24+M20*$F$24)/$E$1)</f>
+        <v>-1</v>
       </c>
       <c r="S20" t="str">
         <f>DEC2HEX(IF(O20&lt;0,0,IF(O20&gt;($E$1-1),($E$1-1),O20)))</f>
-        <v>1E</v>
+        <v>F7</v>
       </c>
       <c r="T20" t="str">
         <f>DEC2HEX(IF(P20&lt;0,0,IF(P20&gt;($E$1-1),($E$1-1),P20)))</f>
@@ -3632,52 +3624,52 @@
         <v>1</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" ref="H21:H35" si="11">S3</f>
-        <v>8F</v>
+        <f t="shared" ref="H21:H35" si="13">S3</f>
+        <v>F8</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="9"/>
-        <v>7A</v>
+        <v>53</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>4F</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21:L35" si="12">HEX2DEC(H21)</f>
-        <v>143</v>
+        <f t="shared" ref="K21:L35" si="14">HEX2DEC(H21)</f>
+        <v>248</v>
       </c>
       <c r="L21">
-        <f t="shared" si="12"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>83</v>
       </c>
       <c r="M21">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="O21">
-        <f>INT(((K21-($E$1/2))*$B$26+(K21-($E$1/2))*$C$26+(L21-($E$1/2))*$D$26+(L21-($E$1/2))*$E$26+M21*$F$26)/$E$1)</f>
-        <v>30</v>
+        <f t="shared" ref="O21:O35" si="15">INT(((K21-($E$1/2))*$B$26+(K21-($E$1/2))*$C$26+(L21-($E$1/2))*$D$26+(L21-($E$1/2))*$E$26+M21*$F$26)/$E$1)</f>
+        <v>247</v>
       </c>
       <c r="P21">
-        <f>INT(((K21-($E$1/2))*$B$25+(K21-($E$1/2))*$C$25+(L21-($E$1/2))*$D$25+(L21-($E$1/2))*$E$25+M21*$F$25)/$E$1)</f>
-        <v>-2</v>
+        <f t="shared" si="11"/>
+        <v>-1</v>
       </c>
       <c r="Q21">
-        <f>INT(((K21-($E$1/2))*$B$24+(K21-($E$1/2))*$C$24+(L21-($E$1/2))*$D$24+(L21-($E$1/2))*$E$24+M21*$F$24)/$E$1)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>8</v>
       </c>
       <c r="S21" t="str">
-        <f t="shared" ref="S21:S35" si="13">DEC2HEX(IF(O21&lt;0,0,IF(O21&gt;($E$1-1),($E$1-1),O21)))</f>
-        <v>1E</v>
+        <f t="shared" ref="S21:S35" si="16">DEC2HEX(IF(O21&lt;0,0,IF(O21&gt;($E$1-1),($E$1-1),O21)))</f>
+        <v>F7</v>
       </c>
       <c r="T21" t="str">
-        <f>DEC2HEX(IF(P21&lt;0,0,IF(P21&gt;($E$1-1),($E$1-1),P21)))</f>
+        <f t="shared" ref="T21:T35" si="17">DEC2HEX(IF(P21&lt;0,0,IF(P21&gt;($E$1-1),($E$1-1),P21)))</f>
         <v>0</v>
       </c>
       <c r="U21" t="str">
-        <f>DEC2HEX(IF(Q21&lt;0,0,IF(Q21&gt;($E$1-1),($E$1-1),Q21)))</f>
-        <v>0</v>
+        <f t="shared" ref="U21:U35" si="18">DEC2HEX(IF(Q21&lt;0,0,IF(Q21&gt;($E$1-1),($E$1-1),Q21)))</f>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -3700,102 +3692,102 @@
         <v>1</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="11"/>
-        <v>8E</v>
+        <f t="shared" si="13"/>
+        <v>F5</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="9"/>
-        <v>7A</v>
+        <v>51</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="9"/>
-        <v>A</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <f t="shared" si="12"/>
-        <v>142</v>
+        <f t="shared" si="14"/>
+        <v>245</v>
       </c>
       <c r="L22">
-        <f t="shared" si="12"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>81</v>
       </c>
       <c r="M22">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="O22">
-        <f>INT(((K22-($E$1/2))*$B$26+(K22-($E$1/2))*$C$26+(L22-($E$1/2))*$D$26+(L22-($E$1/2))*$E$26+M22*$F$26)/$E$1)</f>
-        <v>29</v>
+        <f t="shared" si="15"/>
+        <v>247</v>
       </c>
       <c r="P22">
-        <f>INT(((K22-($E$1/2))*$B$25+(K22-($E$1/2))*$C$25+(L22-($E$1/2))*$D$25+(L22-($E$1/2))*$E$25+M22*$F$25)/$E$1)</f>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="Q22">
-        <f>INT(((K22-($E$1/2))*$B$24+(K22-($E$1/2))*$C$24+(L22-($E$1/2))*$D$24+(L22-($E$1/2))*$E$24+M22*$F$24)/$E$1)</f>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="S22" t="str">
-        <f t="shared" si="13"/>
-        <v>1D</v>
+        <f t="shared" si="16"/>
+        <v>F7</v>
       </c>
       <c r="T22" t="str">
-        <f>DEC2HEX(IF(P22&lt;0,0,IF(P22&gt;($E$1-1),($E$1-1),P22)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U22" t="str">
-        <f>DEC2HEX(IF(Q22&lt;0,0,IF(Q22&gt;($E$1-1),($E$1-1),Q22)))</f>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>F</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H23" t="str">
-        <f t="shared" si="11"/>
-        <v>8E</v>
+        <f t="shared" si="13"/>
+        <v>F1</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="9"/>
-        <v>79</v>
+        <v>4E</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="9"/>
-        <v>B</v>
+        <v>58</v>
       </c>
       <c r="K23">
-        <f t="shared" si="12"/>
-        <v>142</v>
+        <f t="shared" si="14"/>
+        <v>241</v>
       </c>
       <c r="L23">
-        <f t="shared" si="12"/>
-        <v>121</v>
+        <f t="shared" si="14"/>
+        <v>78</v>
       </c>
       <c r="M23">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="O23">
-        <f>INT(((K23-($E$1/2))*$B$26+(K23-($E$1/2))*$C$26+(L23-($E$1/2))*$D$26+(L23-($E$1/2))*$E$26+M23*$F$26)/$E$1)</f>
-        <v>30</v>
+        <f t="shared" si="15"/>
+        <v>246</v>
       </c>
       <c r="P23">
-        <f>INT(((K23-($E$1/2))*$B$25+(K23-($E$1/2))*$C$25+(L23-($E$1/2))*$D$25+(L23-($E$1/2))*$E$25+M23*$F$25)/$E$1)</f>
-        <v>-2</v>
+        <f t="shared" si="11"/>
+        <v>-1</v>
       </c>
       <c r="Q23">
-        <f>INT(((K23-($E$1/2))*$B$24+(K23-($E$1/2))*$C$24+(L23-($E$1/2))*$D$24+(L23-($E$1/2))*$E$24+M23*$F$24)/$E$1)</f>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>24</v>
       </c>
       <c r="S23" t="str">
-        <f t="shared" si="13"/>
-        <v>1E</v>
+        <f t="shared" si="16"/>
+        <v>F6</v>
       </c>
       <c r="T23" t="str">
-        <f>DEC2HEX(IF(P23&lt;0,0,IF(P23&gt;($E$1-1),($E$1-1),P23)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U23" t="str">
-        <f>DEC2HEX(IF(Q23&lt;0,0,IF(Q23&gt;($E$1-1),($E$1-1),Q23)))</f>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -3807,68 +3799,68 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:F24" si="14">ROUND($E$1*C20,0)</f>
+        <f t="shared" ref="C24:F24" si="19">ROUND($E$1*C20,0)</f>
         <v>-183</v>
       </c>
       <c r="D24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-88</v>
       </c>
       <c r="F24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>256</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="11"/>
-        <v>8D</v>
+        <f t="shared" si="13"/>
+        <v>EE</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="9"/>
-        <v>79</v>
+        <v>4B</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="9"/>
-        <v>B</v>
+        <v>5D</v>
       </c>
       <c r="K24">
-        <f t="shared" si="12"/>
-        <v>141</v>
+        <f t="shared" si="14"/>
+        <v>238</v>
       </c>
       <c r="L24">
-        <f t="shared" si="12"/>
-        <v>121</v>
+        <f t="shared" si="14"/>
+        <v>75</v>
       </c>
       <c r="M24">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="O24">
-        <f>INT(((K24-($E$1/2))*$B$26+(K24-($E$1/2))*$C$26+(L24-($E$1/2))*$D$26+(L24-($E$1/2))*$E$26+M24*$F$26)/$E$1)</f>
-        <v>29</v>
+        <f t="shared" si="15"/>
+        <v>247</v>
       </c>
       <c r="P24">
-        <f>INT(((K24-($E$1/2))*$B$25+(K24-($E$1/2))*$C$25+(L24-($E$1/2))*$D$25+(L24-($E$1/2))*$E$25+M24*$F$25)/$E$1)</f>
-        <v>-2</v>
+        <f t="shared" si="11"/>
+        <v>-1</v>
       </c>
       <c r="Q24">
-        <f>INT(((K24-($E$1/2))*$B$24+(K24-($E$1/2))*$C$24+(L24-($E$1/2))*$D$24+(L24-($E$1/2))*$E$24+M24*$F$24)/$E$1)</f>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>32</v>
       </c>
       <c r="S24" t="str">
-        <f t="shared" si="13"/>
-        <v>1D</v>
+        <f t="shared" si="16"/>
+        <v>F7</v>
       </c>
       <c r="T24" t="str">
-        <f>DEC2HEX(IF(P24&lt;0,0,IF(P24&gt;($E$1-1),($E$1-1),P24)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U24" t="str">
-        <f>DEC2HEX(IF(Q24&lt;0,0,IF(Q24&gt;($E$1-1),($E$1-1),Q24)))</f>
-        <v>4</v>
+        <f t="shared" si="18"/>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -3876,72 +3868,72 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:F26" si="15">ROUND($E$1*B21,0)</f>
+        <f t="shared" ref="B25:F26" si="20">ROUND($E$1*B21,0)</f>
         <v>0</v>
       </c>
       <c r="C25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="D25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>256</v>
       </c>
       <c r="E25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>198</v>
       </c>
       <c r="F25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>256</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="11"/>
-        <v>8D</v>
+        <f t="shared" si="13"/>
+        <v>EB</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="9"/>
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="9"/>
-        <v>C</v>
+        <v>62</v>
       </c>
       <c r="K25">
-        <f t="shared" si="12"/>
-        <v>141</v>
+        <f t="shared" si="14"/>
+        <v>235</v>
       </c>
       <c r="L25">
-        <f t="shared" si="12"/>
-        <v>121</v>
+        <f t="shared" si="14"/>
+        <v>73</v>
       </c>
       <c r="M25">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="O25">
-        <f>INT(((K25-($E$1/2))*$B$26+(K25-($E$1/2))*$C$26+(L25-($E$1/2))*$D$26+(L25-($E$1/2))*$E$26+M25*$F$26)/$E$1)</f>
-        <v>30</v>
+        <f t="shared" si="15"/>
+        <v>248</v>
       </c>
       <c r="P25">
-        <f>INT(((K25-($E$1/2))*$B$25+(K25-($E$1/2))*$C$25+(L25-($E$1/2))*$D$25+(L25-($E$1/2))*$E$25+M25*$F$25)/$E$1)</f>
-        <v>-1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <f>INT(((K25-($E$1/2))*$B$24+(K25-($E$1/2))*$C$24+(L25-($E$1/2))*$D$24+(L25-($E$1/2))*$E$24+M25*$F$24)/$E$1)</f>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>40</v>
       </c>
       <c r="S25" t="str">
-        <f t="shared" si="13"/>
-        <v>1E</v>
+        <f t="shared" si="16"/>
+        <v>F8</v>
       </c>
       <c r="T25" t="str">
-        <f>DEC2HEX(IF(P25&lt;0,0,IF(P25&gt;($E$1-1),($E$1-1),P25)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U25" t="str">
-        <f>DEC2HEX(IF(Q25&lt;0,0,IF(Q25&gt;($E$1-1),($E$1-1),Q25)))</f>
-        <v>5</v>
+        <f t="shared" si="18"/>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3949,525 +3941,526 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>256</v>
       </c>
       <c r="C26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>103</v>
       </c>
       <c r="D26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>256</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="11"/>
-        <v>8C</v>
+        <f t="shared" si="13"/>
+        <v>E7</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="9"/>
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="9"/>
-        <v>C</v>
+        <v>66</v>
       </c>
       <c r="K26">
+        <f t="shared" si="14"/>
+        <v>231</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="10"/>
+        <v>102</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="15"/>
+        <v>246</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="12"/>
+        <v>48</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="16"/>
+        <v>F6</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <f t="shared" si="13"/>
+        <v>E4</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="9"/>
+        <v>6B</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="14"/>
+        <v>228</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="14"/>
+        <v>67</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="10"/>
+        <v>107</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="15"/>
+        <v>247</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="11"/>
+        <v>-2</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="16"/>
+        <v>F7</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="18"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <f t="shared" si="13"/>
+        <v>E1</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="14"/>
+        <v>225</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="10"/>
+        <v>112</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="15"/>
+        <v>248</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="12"/>
+        <v>64</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="16"/>
+        <v>F8</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="18"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H29" t="str">
+        <f t="shared" si="13"/>
+        <v>DD</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="9"/>
+        <v>3E</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="14"/>
+        <v>221</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="14"/>
+        <v>62</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="10"/>
+        <v>116</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="15"/>
+        <v>246</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="11"/>
+        <v>-2</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="16"/>
+        <v>F6</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="18"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H30" t="str">
+        <f t="shared" si="13"/>
+        <v>DA</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="9"/>
+        <v>3B</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="14"/>
+        <v>218</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="14"/>
+        <v>59</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="10"/>
+        <v>121</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="15"/>
+        <v>247</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="11"/>
+        <v>-2</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="16"/>
+        <v>F7</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="18"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <f t="shared" si="13"/>
+        <v>D7</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="9"/>
+        <v>7E</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="14"/>
+        <v>215</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="14"/>
+        <v>57</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="10"/>
+        <v>126</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="15"/>
+        <v>248</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="12"/>
+        <v>88</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="16"/>
+        <v>F8</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="18"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H32" t="str">
+        <f t="shared" si="13"/>
+        <v>D3</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="14"/>
+        <v>211</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="14"/>
+        <v>54</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="10"/>
+        <v>130</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="15"/>
+        <v>246</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="11"/>
+        <v>-2</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="12"/>
+        <v>96</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="16"/>
+        <v>F6</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="18"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H33" t="str">
+        <f t="shared" si="13"/>
+        <v>D0</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="9"/>
+        <v>87</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="14"/>
+        <v>208</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="14"/>
+        <v>51</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="10"/>
+        <v>135</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="15"/>
+        <v>247</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="11"/>
+        <v>-2</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="12"/>
+        <v>104</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" si="16"/>
+        <v>F7</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" si="18"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H34" t="str">
+        <f t="shared" si="13"/>
+        <v>CD</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="9"/>
+        <v>8C</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="14"/>
+        <v>205</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="L26">
+      <c r="O34">
+        <f t="shared" si="15"/>
+        <v>247</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="12"/>
+        <v>112</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="16"/>
+        <v>F7</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="18"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H35" t="str">
+        <f t="shared" si="13"/>
+        <v>C9</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="9"/>
+        <v>2E</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="14"/>
+        <v>201</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="14"/>
+        <v>46</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="10"/>
+        <v>144</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="15"/>
+        <v>246</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="11"/>
+        <v>-2</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="12"/>
         <v>120</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="O26">
-        <f>INT(((K26-($E$1/2))*$B$26+(K26-($E$1/2))*$C$26+(L26-($E$1/2))*$D$26+(L26-($E$1/2))*$E$26+M26*$F$26)/$E$1)</f>
-        <v>28</v>
-      </c>
-      <c r="P26">
-        <f>INT(((K26-($E$1/2))*$B$25+(K26-($E$1/2))*$C$25+(L26-($E$1/2))*$D$25+(L26-($E$1/2))*$E$25+M26*$F$25)/$E$1)</f>
-        <v>-3</v>
-      </c>
-      <c r="Q26">
-        <f>INT(((K26-($E$1/2))*$B$24+(K26-($E$1/2))*$C$24+(L26-($E$1/2))*$D$24+(L26-($E$1/2))*$E$24+M26*$F$24)/$E$1)</f>
-        <v>6</v>
-      </c>
-      <c r="S26" t="str">
-        <f t="shared" si="13"/>
-        <v>1C</v>
-      </c>
-      <c r="T26" t="str">
-        <f>DEC2HEX(IF(P26&lt;0,0,IF(P26&gt;($E$1-1),($E$1-1),P26)))</f>
-        <v>0</v>
-      </c>
-      <c r="U26" t="str">
-        <f>DEC2HEX(IF(Q26&lt;0,0,IF(Q26&gt;($E$1-1),($E$1-1),Q26)))</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H27" t="str">
-        <f t="shared" si="11"/>
-        <v>8C</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="9"/>
+      <c r="S35" t="str">
+        <f t="shared" si="16"/>
+        <v>F6</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" si="18"/>
         <v>78</v>
       </c>
-      <c r="J27" t="str">
-        <f t="shared" si="9"/>
-        <v>D</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="12"/>
-        <v>140</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="12"/>
-        <v>120</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="O27">
-        <f>INT(((K27-($E$1/2))*$B$26+(K27-($E$1/2))*$C$26+(L27-($E$1/2))*$D$26+(L27-($E$1/2))*$E$26+M27*$F$26)/$E$1)</f>
-        <v>29</v>
-      </c>
-      <c r="P27">
-        <f>INT(((K27-($E$1/2))*$B$25+(K27-($E$1/2))*$C$25+(L27-($E$1/2))*$D$25+(L27-($E$1/2))*$E$25+M27*$F$25)/$E$1)</f>
-        <v>-2</v>
-      </c>
-      <c r="Q27">
-        <f>INT(((K27-($E$1/2))*$B$24+(K27-($E$1/2))*$C$24+(L27-($E$1/2))*$D$24+(L27-($E$1/2))*$E$24+M27*$F$24)/$E$1)</f>
-        <v>7</v>
-      </c>
-      <c r="S27" t="str">
-        <f t="shared" si="13"/>
-        <v>1D</v>
-      </c>
-      <c r="T27" t="str">
-        <f>DEC2HEX(IF(P27&lt;0,0,IF(P27&gt;($E$1-1),($E$1-1),P27)))</f>
-        <v>0</v>
-      </c>
-      <c r="U27" t="str">
-        <f>DEC2HEX(IF(Q27&lt;0,0,IF(Q27&gt;($E$1-1),($E$1-1),Q27)))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H28" t="str">
-        <f t="shared" si="11"/>
-        <v>8C</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="9"/>
-        <v>78</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="9"/>
-        <v>E</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="12"/>
-        <v>140</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="12"/>
-        <v>120</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="O28">
-        <f>INT(((K28-($E$1/2))*$B$26+(K28-($E$1/2))*$C$26+(L28-($E$1/2))*$D$26+(L28-($E$1/2))*$E$26+M28*$F$26)/$E$1)</f>
-        <v>30</v>
-      </c>
-      <c r="P28">
-        <f>INT(((K28-($E$1/2))*$B$25+(K28-($E$1/2))*$C$25+(L28-($E$1/2))*$D$25+(L28-($E$1/2))*$E$25+M28*$F$25)/$E$1)</f>
-        <v>-1</v>
-      </c>
-      <c r="Q28">
-        <f>INT(((K28-($E$1/2))*$B$24+(K28-($E$1/2))*$C$24+(L28-($E$1/2))*$D$24+(L28-($E$1/2))*$E$24+M28*$F$24)/$E$1)</f>
-        <v>8</v>
-      </c>
-      <c r="S28" t="str">
-        <f t="shared" si="13"/>
-        <v>1E</v>
-      </c>
-      <c r="T28" t="str">
-        <f>DEC2HEX(IF(P28&lt;0,0,IF(P28&gt;($E$1-1),($E$1-1),P28)))</f>
-        <v>0</v>
-      </c>
-      <c r="U28" t="str">
-        <f>DEC2HEX(IF(Q28&lt;0,0,IF(Q28&gt;($E$1-1),($E$1-1),Q28)))</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H29" t="str">
-        <f t="shared" si="11"/>
-        <v>8B</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="9"/>
-        <v>77</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="9"/>
-        <v>E</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="12"/>
-        <v>139</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="12"/>
-        <v>119</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="O29">
-        <f>INT(((K29-($E$1/2))*$B$26+(K29-($E$1/2))*$C$26+(L29-($E$1/2))*$D$26+(L29-($E$1/2))*$E$26+M29*$F$26)/$E$1)</f>
-        <v>29</v>
-      </c>
-      <c r="P29">
-        <f>INT(((K29-($E$1/2))*$B$25+(K29-($E$1/2))*$C$25+(L29-($E$1/2))*$D$25+(L29-($E$1/2))*$E$25+M29*$F$25)/$E$1)</f>
-        <v>-2</v>
-      </c>
-      <c r="Q29">
-        <f>INT(((K29-($E$1/2))*$B$24+(K29-($E$1/2))*$C$24+(L29-($E$1/2))*$D$24+(L29-($E$1/2))*$E$24+M29*$F$24)/$E$1)</f>
-        <v>9</v>
-      </c>
-      <c r="S29" t="str">
-        <f t="shared" si="13"/>
-        <v>1D</v>
-      </c>
-      <c r="T29" t="str">
-        <f>DEC2HEX(IF(P29&lt;0,0,IF(P29&gt;($E$1-1),($E$1-1),P29)))</f>
-        <v>0</v>
-      </c>
-      <c r="U29" t="str">
-        <f>DEC2HEX(IF(Q29&lt;0,0,IF(Q29&gt;($E$1-1),($E$1-1),Q29)))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H30" t="str">
-        <f t="shared" si="11"/>
-        <v>8B</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="9"/>
-        <v>77</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="12"/>
-        <v>139</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="12"/>
-        <v>119</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="O30">
-        <f>INT(((K30-($E$1/2))*$B$26+(K30-($E$1/2))*$C$26+(L30-($E$1/2))*$D$26+(L30-($E$1/2))*$E$26+M30*$F$26)/$E$1)</f>
-        <v>30</v>
-      </c>
-      <c r="P30">
-        <f>INT(((K30-($E$1/2))*$B$25+(K30-($E$1/2))*$C$25+(L30-($E$1/2))*$D$25+(L30-($E$1/2))*$E$25+M30*$F$25)/$E$1)</f>
-        <v>-1</v>
-      </c>
-      <c r="Q30">
-        <f>INT(((K30-($E$1/2))*$B$24+(K30-($E$1/2))*$C$24+(L30-($E$1/2))*$D$24+(L30-($E$1/2))*$E$24+M30*$F$24)/$E$1)</f>
-        <v>10</v>
-      </c>
-      <c r="S30" t="str">
-        <f t="shared" si="13"/>
-        <v>1E</v>
-      </c>
-      <c r="T30" t="str">
-        <f>DEC2HEX(IF(P30&lt;0,0,IF(P30&gt;($E$1-1),($E$1-1),P30)))</f>
-        <v>0</v>
-      </c>
-      <c r="U30" t="str">
-        <f>DEC2HEX(IF(Q30&lt;0,0,IF(Q30&gt;($E$1-1),($E$1-1),Q30)))</f>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H31" t="str">
-        <f t="shared" si="11"/>
-        <v>8A</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="9"/>
-        <v>77</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="12"/>
-        <v>138</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="12"/>
-        <v>119</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="O31">
-        <f>INT(((K31-($E$1/2))*$B$26+(K31-($E$1/2))*$C$26+(L31-($E$1/2))*$D$26+(L31-($E$1/2))*$E$26+M31*$F$26)/$E$1)</f>
-        <v>29</v>
-      </c>
-      <c r="P31">
-        <f>INT(((K31-($E$1/2))*$B$25+(K31-($E$1/2))*$C$25+(L31-($E$1/2))*$D$25+(L31-($E$1/2))*$E$25+M31*$F$25)/$E$1)</f>
-        <v>-1</v>
-      </c>
-      <c r="Q31">
-        <f>INT(((K31-($E$1/2))*$B$24+(K31-($E$1/2))*$C$24+(L31-($E$1/2))*$D$24+(L31-($E$1/2))*$E$24+M31*$F$24)/$E$1)</f>
-        <v>10</v>
-      </c>
-      <c r="S31" t="str">
-        <f t="shared" si="13"/>
-        <v>1D</v>
-      </c>
-      <c r="T31" t="str">
-        <f>DEC2HEX(IF(P31&lt;0,0,IF(P31&gt;($E$1-1),($E$1-1),P31)))</f>
-        <v>0</v>
-      </c>
-      <c r="U31" t="str">
-        <f>DEC2HEX(IF(Q31&lt;0,0,IF(Q31&gt;($E$1-1),($E$1-1),Q31)))</f>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H32" t="str">
-        <f t="shared" si="11"/>
-        <v>8A</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="9"/>
-        <v>76</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="12"/>
-        <v>138</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="12"/>
-        <v>118</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="O32">
-        <f>INT(((K32-($E$1/2))*$B$26+(K32-($E$1/2))*$C$26+(L32-($E$1/2))*$D$26+(L32-($E$1/2))*$E$26+M32*$F$26)/$E$1)</f>
-        <v>30</v>
-      </c>
-      <c r="P32">
-        <f>INT(((K32-($E$1/2))*$B$25+(K32-($E$1/2))*$C$25+(L32-($E$1/2))*$D$25+(L32-($E$1/2))*$E$25+M32*$F$25)/$E$1)</f>
-        <v>-2</v>
-      </c>
-      <c r="Q32">
-        <f>INT(((K32-($E$1/2))*$B$24+(K32-($E$1/2))*$C$24+(L32-($E$1/2))*$D$24+(L32-($E$1/2))*$E$24+M32*$F$24)/$E$1)</f>
-        <v>12</v>
-      </c>
-      <c r="S32" t="str">
-        <f t="shared" si="13"/>
-        <v>1E</v>
-      </c>
-      <c r="T32" t="str">
-        <f>DEC2HEX(IF(P32&lt;0,0,IF(P32&gt;($E$1-1),($E$1-1),P32)))</f>
-        <v>0</v>
-      </c>
-      <c r="U32" t="str">
-        <f>DEC2HEX(IF(Q32&lt;0,0,IF(Q32&gt;($E$1-1),($E$1-1),Q32)))</f>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="33" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H33" t="str">
-        <f t="shared" si="11"/>
-        <v>8A</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="9"/>
-        <v>76</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="12"/>
-        <v>138</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="12"/>
-        <v>118</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="O33">
-        <f>INT(((K33-($E$1/2))*$B$26+(K33-($E$1/2))*$C$26+(L33-($E$1/2))*$D$26+(L33-($E$1/2))*$E$26+M33*$F$26)/$E$1)</f>
-        <v>30</v>
-      </c>
-      <c r="P33">
-        <f>INT(((K33-($E$1/2))*$B$25+(K33-($E$1/2))*$C$25+(L33-($E$1/2))*$D$25+(L33-($E$1/2))*$E$25+M33*$F$25)/$E$1)</f>
-        <v>-2</v>
-      </c>
-      <c r="Q33">
-        <f>INT(((K33-($E$1/2))*$B$24+(K33-($E$1/2))*$C$24+(L33-($E$1/2))*$D$24+(L33-($E$1/2))*$E$24+M33*$F$24)/$E$1)</f>
-        <v>12</v>
-      </c>
-      <c r="S33" t="str">
-        <f t="shared" si="13"/>
-        <v>1E</v>
-      </c>
-      <c r="T33" t="str">
-        <f>DEC2HEX(IF(P33&lt;0,0,IF(P33&gt;($E$1-1),($E$1-1),P33)))</f>
-        <v>0</v>
-      </c>
-      <c r="U33" t="str">
-        <f>DEC2HEX(IF(Q33&lt;0,0,IF(Q33&gt;($E$1-1),($E$1-1),Q33)))</f>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="34" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H34" t="str">
-        <f t="shared" si="11"/>
-        <v>89</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="9"/>
-        <v>76</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="12"/>
-        <v>137</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="12"/>
-        <v>118</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="10"/>
-        <v>17</v>
-      </c>
-      <c r="O34">
-        <f>INT(((K34-($E$1/2))*$B$26+(K34-($E$1/2))*$C$26+(L34-($E$1/2))*$D$26+(L34-($E$1/2))*$E$26+M34*$F$26)/$E$1)</f>
-        <v>29</v>
-      </c>
-      <c r="P34">
-        <f>INT(((K34-($E$1/2))*$B$25+(K34-($E$1/2))*$C$25+(L34-($E$1/2))*$D$25+(L34-($E$1/2))*$E$25+M34*$F$25)/$E$1)</f>
-        <v>-1</v>
-      </c>
-      <c r="Q34">
-        <f>INT(((K34-($E$1/2))*$B$24+(K34-($E$1/2))*$C$24+(L34-($E$1/2))*$D$24+(L34-($E$1/2))*$E$24+M34*$F$24)/$E$1)</f>
-        <v>14</v>
-      </c>
-      <c r="S34" t="str">
-        <f t="shared" si="13"/>
-        <v>1D</v>
-      </c>
-      <c r="T34" t="str">
-        <f>DEC2HEX(IF(P34&lt;0,0,IF(P34&gt;($E$1-1),($E$1-1),P34)))</f>
-        <v>0</v>
-      </c>
-      <c r="U34" t="str">
-        <f>DEC2HEX(IF(Q34&lt;0,0,IF(Q34&gt;($E$1-1),($E$1-1),Q34)))</f>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="35" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H35" t="str">
-        <f t="shared" si="11"/>
-        <v>89</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="9"/>
-        <v>75</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="12"/>
-        <v>137</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="12"/>
-        <v>117</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="10"/>
-        <v>18</v>
-      </c>
-      <c r="O35">
-        <f>INT(((K35-($E$1/2))*$B$26+(K35-($E$1/2))*$C$26+(L35-($E$1/2))*$D$26+(L35-($E$1/2))*$E$26+M35*$F$26)/$E$1)</f>
-        <v>30</v>
-      </c>
-      <c r="P35">
-        <f>INT(((K35-($E$1/2))*$B$25+(K35-($E$1/2))*$C$25+(L35-($E$1/2))*$D$25+(L35-($E$1/2))*$E$25+M35*$F$25)/$E$1)</f>
-        <v>-2</v>
-      </c>
-      <c r="Q35">
-        <f>INT(((K35-($E$1/2))*$B$24+(K35-($E$1/2))*$C$24+(L35-($E$1/2))*$D$24+(L35-($E$1/2))*$E$24+M35*$F$24)/$E$1)</f>
-        <v>15</v>
-      </c>
-      <c r="S35" t="str">
-        <f t="shared" si="13"/>
-        <v>1E</v>
-      </c>
-      <c r="T35" t="str">
-        <f>DEC2HEX(IF(P35&lt;0,0,IF(P35&gt;($E$1-1),($E$1-1),P35)))</f>
-        <v>0</v>
-      </c>
-      <c r="U35" t="str">
-        <f>DEC2HEX(IF(Q35&lt;0,0,IF(Q35&gt;($E$1-1),($E$1-1),Q35)))</f>
-        <v>F</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
